--- a/dk/BIMTypeCode - BDA - 2022DK.xlsx
+++ b/dk/BIMTypeCode - BDA - 2022DK.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mm428\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D094C821-697E-44AF-B06E-A865029B0634}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D568BF-04EF-477B-8470-5AB9493C5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vejledning" sheetId="3" r:id="rId1"/>
     <sheet name="BDA-skema" sheetId="5" r:id="rId2"/>
-    <sheet name="Versioner" sheetId="4" r:id="rId3"/>
+    <sheet name="LOG" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'BDA-skema'!$B$16:$L$396</definedName>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Vejledning!$A$1:$T$46</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'BDA-skema'!$1:$16</definedName>
   </definedNames>
-  <calcPr calcId="191028" calcOnSave="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2505" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="758">
   <si>
     <t xml:space="preserve">BIMTypeCode Detaljering og Ansvar (BDA) skema - af BIM7AA
 </t>
@@ -291,19 +291,19 @@
     <t>05</t>
   </si>
   <si>
-    <t>Generisk objekter EL</t>
+    <t>Generiske objekter EL</t>
   </si>
   <si>
     <t>06</t>
   </si>
   <si>
-    <t>Generisk objekter LAND</t>
+    <t>Generiske objekter LAND</t>
   </si>
   <si>
     <t>07</t>
   </si>
   <si>
-    <t>Generisk objekter Entreprenør Leverandør</t>
+    <t>Generiske objekter Entreprenør/Leverandør</t>
   </si>
   <si>
     <t>09</t>
@@ -609,7 +609,7 @@
     <t>239</t>
   </si>
   <si>
-    <t>Øvrige dæk</t>
+    <t>Øvrigt, Dæk</t>
   </si>
   <si>
     <t>Trapper og ramper</t>
@@ -831,7 +831,7 @@
     <t>309</t>
   </si>
   <si>
-    <t>Øvrigt terræn komplettering</t>
+    <t>Øvrigt terræn kompletteringer</t>
   </si>
   <si>
     <t>Ydervægge, komplettering</t>
@@ -996,7 +996,7 @@
     <t>349</t>
   </si>
   <si>
-    <t>Øvrig trappekompletteringer</t>
+    <t>Øvrigt, Trappekompletteringer</t>
   </si>
   <si>
     <t>Lofter, komplettering</t>
@@ -1734,6 +1734,9 @@
     <t>60</t>
   </si>
   <si>
+    <t>El- og mekaniske anlæg, Terræn</t>
+  </si>
+  <si>
     <t>601</t>
   </si>
   <si>
@@ -2028,7 +2031,7 @@
     <t>68</t>
   </si>
   <si>
-    <t>Person- og materialetransport</t>
+    <t>Person-, materiale- og servicetransport</t>
   </si>
   <si>
     <t>681</t>
@@ -2364,13 +2367,25 @@
     <t>1.0</t>
   </si>
   <si>
-    <t>Første offentlige version udsendt</t>
+    <t>Første version udsendt</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>Rettelse af ansvar i Trapper og ramper - 241, 242, 244 og 245</t>
+  </si>
+  <si>
+    <t>Rettelse af ansvar i Altaner- og Altangange - 261 og 262</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
+  </numFmts>
   <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -3087,7 +3102,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="249">
+  <cellStyleXfs count="250">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -3339,8 +3354,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="289">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4017,7 +4033,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="20" fillId="26" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -4048,7 +4063,55 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4112,307 +4175,478 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="249">
-    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="228" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="232" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="238" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="240" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="236" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="230" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="234" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="242" builtinId="8" hidden="1"/>
+  <cellStyles count="250">
+    <cellStyle name="Besøgt link" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="240" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="242" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="232" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="228" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
     <cellStyle name="Normal 3" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Normal 4" xfId="249" xr:uid="{332381A9-585B-4BE2-A0BC-1EEDBEC86EDD}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="47">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4879,179 +5113,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color auto="1"/>
@@ -5076,7 +5137,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4">
     <tableStyle name="Tabeltypografi BIM7AA" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
+      <tableStyleElement type="wholeTable" dxfId="46"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6980,20 +7041,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95D697C7-52EB-4EDC-A439-4F093EDEEEF5}" name="Tabel13" displayName="Tabel13" ref="B16:L396" totalsRowShown="0" headerRowDxfId="14" dataDxfId="12" headerRowBorderDxfId="13" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95D697C7-52EB-4EDC-A439-4F093EDEEEF5}" name="Tabel13" displayName="Tabel13" ref="B16:L396" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
   <autoFilter ref="B16:L396" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{26C41921-062F-4245-8FC2-8664450CCE41}" name="BIMTypeCode" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{356A2225-1AF5-430D-8CA1-5F27DBCDA05D}" name="BIMTypeCode-Description" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{3906863F-B66C-445C-854A-2502D2998051}" name="Kolonne1" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{B742BCAB-7A93-43DF-8C18-9CD342A25C34}" name="Ansvar" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{FB64B988-3B90-4319-9B69-03C769A6D8BB}" name="Disp. forslag" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{62238EBD-837B-4BF8-84A9-5ED6FA508287}" name="Projektforslag" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{BB6A3D7F-6E2F-4979-BB3E-034AF1F3C8E4}" name="Myndighedsprojekt" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{93C15FF5-FF5B-45A3-B308-35E8C6C6C120}" name="Udbudsprojekt2" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{850C70F9-8725-4A4F-AC9F-866E50619694}" name="Udførelsesprojekt" dataDxfId="2"/>
-    <tableColumn id="10" xr3:uid="{98A61EA5-946E-40E8-BFC9-1AF0C4A7750B}" name="Udførelse" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{B2DF865D-C6AD-4D93-927C-19398DA8B9B6}" name="Aflevering" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{26C41921-062F-4245-8FC2-8664450CCE41}" name="BIMTypeCode" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{356A2225-1AF5-430D-8CA1-5F27DBCDA05D}" name="BIMTypeCode-Description" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{3906863F-B66C-445C-854A-2502D2998051}" name="Kolonne1" dataDxfId="39"/>
+    <tableColumn id="5" xr3:uid="{B742BCAB-7A93-43DF-8C18-9CD342A25C34}" name="Ansvar" dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{FB64B988-3B90-4319-9B69-03C769A6D8BB}" name="Disp. forslag" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{62238EBD-837B-4BF8-84A9-5ED6FA508287}" name="Projektforslag" dataDxfId="36"/>
+    <tableColumn id="8" xr3:uid="{BB6A3D7F-6E2F-4979-BB3E-034AF1F3C8E4}" name="Myndighedsprojekt" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{93C15FF5-FF5B-45A3-B308-35E8C6C6C120}" name="Udbudsprojekt2" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{850C70F9-8725-4A4F-AC9F-866E50619694}" name="Udførelsesprojekt" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{98A61EA5-946E-40E8-BFC9-1AF0C4A7750B}" name="Udførelse" dataDxfId="32"/>
+    <tableColumn id="11" xr3:uid="{B2DF865D-C6AD-4D93-927C-19398DA8B9B6}" name="Aflevering" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7345,8 +7406,8 @@
   </sheetPr>
   <dimension ref="A1:W404"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7364,19 +7425,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="252" t="s">
+      <c r="B1" s="267" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
+      <c r="C1" s="268"/>
+      <c r="D1" s="268"/>
+      <c r="E1" s="268"/>
+      <c r="F1" s="268"/>
+      <c r="G1" s="268"/>
+      <c r="H1" s="268"/>
+      <c r="I1" s="268"/>
+      <c r="J1" s="268"/>
+      <c r="K1" s="268"/>
+      <c r="L1" s="268"/>
     </row>
     <row r="2" spans="1:12" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="95"/>
@@ -7402,258 +7463,258 @@
         <v>6</v>
       </c>
       <c r="I2" s="237"/>
-      <c r="J2" s="254" t="s">
+      <c r="J2" s="269" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="255"/>
+      <c r="K2" s="270"/>
       <c r="L2" s="149" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="96"/>
-      <c r="B3" s="256" t="s">
+      <c r="B3" s="271" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="257"/>
+      <c r="C3" s="272"/>
       <c r="D3" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="243" t="s">
+      <c r="E3" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="261" t="s">
+      <c r="F3" s="276" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="262"/>
-      <c r="H3" s="267" t="s">
+      <c r="G3" s="277"/>
+      <c r="H3" s="282" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="268"/>
-      <c r="J3" s="268"/>
-      <c r="K3" s="269"/>
-      <c r="L3" s="270"/>
+      <c r="I3" s="283"/>
+      <c r="J3" s="283"/>
+      <c r="K3" s="284"/>
+      <c r="L3" s="285"/>
     </row>
     <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="96"/>
-      <c r="B4" s="256"/>
-      <c r="C4" s="258"/>
+      <c r="B4" s="271"/>
+      <c r="C4" s="273"/>
       <c r="D4" s="102" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="263"/>
-      <c r="G4" s="264"/>
+      <c r="F4" s="278"/>
+      <c r="G4" s="279"/>
       <c r="H4" s="97" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="233"/>
-      <c r="J4" s="273" t="s">
+      <c r="J4" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="274"/>
-      <c r="L4" s="271"/>
+      <c r="K4" s="259"/>
+      <c r="L4" s="286"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="96"/>
-      <c r="B5" s="256"/>
-      <c r="C5" s="258"/>
+      <c r="B5" s="271"/>
+      <c r="C5" s="273"/>
       <c r="D5" s="102" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="263"/>
-      <c r="G5" s="264"/>
+      <c r="F5" s="278"/>
+      <c r="G5" s="279"/>
       <c r="H5" s="97" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="233"/>
-      <c r="J5" s="273" t="s">
+      <c r="J5" s="258" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="274"/>
-      <c r="L5" s="271"/>
+      <c r="K5" s="259"/>
+      <c r="L5" s="286"/>
     </row>
     <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="96"/>
-      <c r="B6" s="256"/>
-      <c r="C6" s="258"/>
+      <c r="B6" s="271"/>
+      <c r="C6" s="273"/>
       <c r="D6" s="102" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="263"/>
-      <c r="G6" s="264"/>
+      <c r="F6" s="278"/>
+      <c r="G6" s="279"/>
       <c r="H6" s="97" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="233"/>
-      <c r="J6" s="273" t="s">
+      <c r="J6" s="258" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="274"/>
-      <c r="L6" s="271"/>
+      <c r="K6" s="259"/>
+      <c r="L6" s="286"/>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="96"/>
-      <c r="B7" s="256"/>
-      <c r="C7" s="258"/>
+      <c r="B7" s="271"/>
+      <c r="C7" s="273"/>
       <c r="D7" s="102" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="263"/>
-      <c r="G7" s="264"/>
+      <c r="F7" s="278"/>
+      <c r="G7" s="279"/>
       <c r="H7" s="97" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="233"/>
-      <c r="J7" s="273" t="s">
+      <c r="J7" s="258" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="274"/>
-      <c r="L7" s="271"/>
+      <c r="K7" s="259"/>
+      <c r="L7" s="286"/>
     </row>
     <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="96"/>
-      <c r="B8" s="256"/>
-      <c r="C8" s="258"/>
+      <c r="B8" s="271"/>
+      <c r="C8" s="273"/>
       <c r="D8" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="263"/>
-      <c r="G8" s="264"/>
+      <c r="F8" s="278"/>
+      <c r="G8" s="279"/>
       <c r="H8" s="97"/>
       <c r="I8" s="233"/>
-      <c r="J8" s="273"/>
-      <c r="K8" s="274"/>
-      <c r="L8" s="271"/>
+      <c r="J8" s="258"/>
+      <c r="K8" s="259"/>
+      <c r="L8" s="286"/>
     </row>
     <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="96"/>
-      <c r="B9" s="256"/>
-      <c r="C9" s="258"/>
+      <c r="B9" s="271"/>
+      <c r="C9" s="273"/>
       <c r="D9" s="102" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="203" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="263"/>
-      <c r="G9" s="264"/>
+      <c r="F9" s="278"/>
+      <c r="G9" s="279"/>
       <c r="H9" s="98"/>
       <c r="I9" s="234"/>
-      <c r="J9" s="282"/>
-      <c r="K9" s="283"/>
-      <c r="L9" s="271"/>
+      <c r="J9" s="260"/>
+      <c r="K9" s="261"/>
+      <c r="L9" s="286"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="96"/>
-      <c r="B10" s="256"/>
-      <c r="C10" s="258"/>
+      <c r="B10" s="271"/>
+      <c r="C10" s="273"/>
       <c r="D10" s="102" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="263"/>
-      <c r="G10" s="264"/>
+      <c r="F10" s="278"/>
+      <c r="G10" s="279"/>
       <c r="H10" s="99"/>
       <c r="I10" s="235"/>
-      <c r="J10" s="284"/>
-      <c r="K10" s="285"/>
-      <c r="L10" s="271"/>
+      <c r="J10" s="262"/>
+      <c r="K10" s="263"/>
+      <c r="L10" s="286"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="96"/>
-      <c r="B11" s="256"/>
-      <c r="C11" s="258"/>
+      <c r="B11" s="271"/>
+      <c r="C11" s="273"/>
       <c r="D11" s="102" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="263"/>
-      <c r="G11" s="264"/>
+      <c r="F11" s="278"/>
+      <c r="G11" s="279"/>
       <c r="H11" s="98"/>
       <c r="I11" s="234"/>
-      <c r="J11" s="282"/>
-      <c r="K11" s="283"/>
-      <c r="L11" s="271"/>
+      <c r="J11" s="260"/>
+      <c r="K11" s="261"/>
+      <c r="L11" s="286"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="96"/>
-      <c r="B12" s="259"/>
-      <c r="C12" s="260"/>
+      <c r="B12" s="274"/>
+      <c r="C12" s="275"/>
       <c r="D12" s="103" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="265"/>
-      <c r="G12" s="266"/>
+      <c r="F12" s="280"/>
+      <c r="G12" s="281"/>
       <c r="H12" s="100"/>
       <c r="I12" s="236"/>
-      <c r="J12" s="286"/>
-      <c r="K12" s="287"/>
-      <c r="L12" s="272"/>
+      <c r="J12" s="264"/>
+      <c r="K12" s="265"/>
+      <c r="L12" s="287"/>
     </row>
     <row r="13" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="288"/>
-      <c r="C13" s="288"/>
-      <c r="D13" s="288"/>
-      <c r="E13" s="288"/>
-      <c r="F13" s="288"/>
-      <c r="G13" s="288"/>
-      <c r="H13" s="288"/>
-      <c r="I13" s="288"/>
-      <c r="J13" s="288"/>
-      <c r="K13" s="288"/>
-      <c r="L13" s="288"/>
+      <c r="B13" s="266"/>
+      <c r="C13" s="266"/>
+      <c r="D13" s="266"/>
+      <c r="E13" s="266"/>
+      <c r="F13" s="266"/>
+      <c r="G13" s="266"/>
+      <c r="H13" s="266"/>
+      <c r="I13" s="266"/>
+      <c r="J13" s="266"/>
+      <c r="K13" s="266"/>
+      <c r="L13" s="266"/>
     </row>
     <row r="14" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="275" t="s">
+      <c r="B14" s="251" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="276"/>
-      <c r="D14" s="276"/>
-      <c r="E14" s="277"/>
-      <c r="F14" s="278" t="s">
+      <c r="C14" s="252"/>
+      <c r="D14" s="252"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="254" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="279"/>
-      <c r="H14" s="279"/>
-      <c r="I14" s="279"/>
-      <c r="J14" s="279"/>
-      <c r="K14" s="279"/>
-      <c r="L14" s="280"/>
+      <c r="G14" s="255"/>
+      <c r="H14" s="255"/>
+      <c r="I14" s="255"/>
+      <c r="J14" s="255"/>
+      <c r="K14" s="255"/>
+      <c r="L14" s="256"/>
     </row>
     <row r="15" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="281"/>
-      <c r="C15" s="281"/>
-      <c r="D15" s="281"/>
-      <c r="E15" s="281"/>
-      <c r="F15" s="281"/>
-      <c r="G15" s="281"/>
-      <c r="H15" s="281"/>
-      <c r="I15" s="281"/>
-      <c r="J15" s="281"/>
-      <c r="K15" s="281"/>
-      <c r="L15" s="281"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="257"/>
+      <c r="D15" s="257"/>
+      <c r="E15" s="257"/>
+      <c r="F15" s="257"/>
+      <c r="G15" s="257"/>
+      <c r="H15" s="257"/>
+      <c r="I15" s="257"/>
+      <c r="J15" s="257"/>
+      <c r="K15" s="257"/>
+      <c r="L15" s="257"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B16" s="124" t="s">
@@ -7773,17 +7834,17 @@
       <c r="J20" s="133"/>
       <c r="K20" s="133"/>
       <c r="L20" s="130"/>
-      <c r="M20" s="244"/>
-      <c r="N20" s="244"/>
-      <c r="O20" s="244"/>
-      <c r="P20" s="244"/>
-      <c r="Q20" s="244"/>
-      <c r="R20" s="244"/>
-      <c r="S20" s="244"/>
-      <c r="T20" s="244"/>
-      <c r="U20" s="244"/>
-      <c r="V20" s="244"/>
-      <c r="W20" s="244"/>
+      <c r="M20" s="243"/>
+      <c r="N20" s="243"/>
+      <c r="O20" s="243"/>
+      <c r="P20" s="243"/>
+      <c r="Q20" s="243"/>
+      <c r="R20" s="243"/>
+      <c r="S20" s="243"/>
+      <c r="T20" s="243"/>
+      <c r="U20" s="243"/>
+      <c r="V20" s="243"/>
+      <c r="W20" s="243"/>
     </row>
     <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
@@ -7807,17 +7868,17 @@
       <c r="J21" s="133"/>
       <c r="K21" s="133"/>
       <c r="L21" s="130"/>
-      <c r="M21" s="244"/>
-      <c r="N21" s="244"/>
-      <c r="O21" s="244"/>
-      <c r="P21" s="244"/>
-      <c r="Q21" s="244"/>
-      <c r="R21" s="244"/>
-      <c r="S21" s="244"/>
-      <c r="T21" s="244"/>
-      <c r="U21" s="244"/>
-      <c r="V21" s="244"/>
-      <c r="W21" s="244"/>
+      <c r="M21" s="243"/>
+      <c r="N21" s="243"/>
+      <c r="O21" s="243"/>
+      <c r="P21" s="243"/>
+      <c r="Q21" s="243"/>
+      <c r="R21" s="243"/>
+      <c r="S21" s="243"/>
+      <c r="T21" s="243"/>
+      <c r="U21" s="243"/>
+      <c r="V21" s="243"/>
+      <c r="W21" s="243"/>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
@@ -7841,17 +7902,17 @@
       <c r="J22" s="133"/>
       <c r="K22" s="133"/>
       <c r="L22" s="130"/>
-      <c r="M22" s="244"/>
-      <c r="N22" s="244"/>
-      <c r="O22" s="244"/>
-      <c r="P22" s="244"/>
-      <c r="Q22" s="244"/>
-      <c r="R22" s="244"/>
-      <c r="S22" s="244"/>
-      <c r="T22" s="244"/>
-      <c r="U22" s="244"/>
-      <c r="V22" s="244"/>
-      <c r="W22" s="244"/>
+      <c r="M22" s="243"/>
+      <c r="N22" s="243"/>
+      <c r="O22" s="243"/>
+      <c r="P22" s="243"/>
+      <c r="Q22" s="243"/>
+      <c r="R22" s="243"/>
+      <c r="S22" s="243"/>
+      <c r="T22" s="243"/>
+      <c r="U22" s="243"/>
+      <c r="V22" s="243"/>
+      <c r="W22" s="243"/>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
@@ -7875,17 +7936,17 @@
       <c r="J23" s="133"/>
       <c r="K23" s="133"/>
       <c r="L23" s="130"/>
-      <c r="M23" s="244"/>
-      <c r="N23" s="244"/>
-      <c r="O23" s="244"/>
-      <c r="P23" s="244"/>
-      <c r="Q23" s="244"/>
-      <c r="R23" s="244"/>
-      <c r="S23" s="244"/>
-      <c r="T23" s="244"/>
-      <c r="U23" s="244"/>
-      <c r="V23" s="244"/>
-      <c r="W23" s="244"/>
+      <c r="M23" s="243"/>
+      <c r="N23" s="243"/>
+      <c r="O23" s="243"/>
+      <c r="P23" s="243"/>
+      <c r="Q23" s="243"/>
+      <c r="R23" s="243"/>
+      <c r="S23" s="243"/>
+      <c r="T23" s="243"/>
+      <c r="U23" s="243"/>
+      <c r="V23" s="243"/>
+      <c r="W23" s="243"/>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
@@ -7905,17 +7966,17 @@
       <c r="J24" s="133"/>
       <c r="K24" s="133"/>
       <c r="L24" s="130"/>
-      <c r="M24" s="244"/>
-      <c r="N24" s="244"/>
-      <c r="O24" s="244"/>
-      <c r="P24" s="244"/>
-      <c r="Q24" s="244"/>
-      <c r="R24" s="244"/>
-      <c r="S24" s="244"/>
-      <c r="T24" s="244"/>
-      <c r="U24" s="244"/>
-      <c r="V24" s="244"/>
-      <c r="W24" s="244"/>
+      <c r="M24" s="243"/>
+      <c r="N24" s="243"/>
+      <c r="O24" s="243"/>
+      <c r="P24" s="243"/>
+      <c r="Q24" s="243"/>
+      <c r="R24" s="243"/>
+      <c r="S24" s="243"/>
+      <c r="T24" s="243"/>
+      <c r="U24" s="243"/>
+      <c r="V24" s="243"/>
+      <c r="W24" s="243"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
@@ -7933,17 +7994,17 @@
       <c r="J25" s="133"/>
       <c r="K25" s="133"/>
       <c r="L25" s="130"/>
-      <c r="M25" s="244"/>
-      <c r="N25" s="244"/>
-      <c r="O25" s="244"/>
-      <c r="P25" s="244"/>
-      <c r="Q25" s="244"/>
-      <c r="R25" s="244"/>
-      <c r="S25" s="244"/>
-      <c r="T25" s="244"/>
-      <c r="U25" s="244"/>
-      <c r="V25" s="244"/>
-      <c r="W25" s="244"/>
+      <c r="M25" s="243"/>
+      <c r="N25" s="243"/>
+      <c r="O25" s="243"/>
+      <c r="P25" s="243"/>
+      <c r="Q25" s="243"/>
+      <c r="R25" s="243"/>
+      <c r="S25" s="243"/>
+      <c r="T25" s="243"/>
+      <c r="U25" s="243"/>
+      <c r="V25" s="243"/>
+      <c r="W25" s="243"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" s="209" t="s">
@@ -7961,17 +8022,17 @@
       <c r="J26" s="50"/>
       <c r="K26" s="50"/>
       <c r="L26" s="51"/>
-      <c r="M26" s="244"/>
-      <c r="N26" s="244"/>
-      <c r="O26" s="244"/>
-      <c r="P26" s="244"/>
-      <c r="Q26" s="244"/>
-      <c r="R26" s="244"/>
-      <c r="S26" s="244"/>
-      <c r="T26" s="244"/>
-      <c r="U26" s="244"/>
-      <c r="V26" s="244"/>
-      <c r="W26" s="244"/>
+      <c r="M26" s="243"/>
+      <c r="N26" s="243"/>
+      <c r="O26" s="243"/>
+      <c r="P26" s="243"/>
+      <c r="Q26" s="243"/>
+      <c r="R26" s="243"/>
+      <c r="S26" s="243"/>
+      <c r="T26" s="243"/>
+      <c r="U26" s="243"/>
+      <c r="V26" s="243"/>
+      <c r="W26" s="243"/>
     </row>
     <row r="27" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="22">
@@ -7989,16 +8050,16 @@
       <c r="J27" s="66"/>
       <c r="K27" s="66"/>
       <c r="L27" s="71"/>
-      <c r="N27" s="244"/>
-      <c r="O27" s="244"/>
-      <c r="P27" s="244"/>
-      <c r="Q27" s="244"/>
-      <c r="R27" s="244"/>
-      <c r="S27" s="244"/>
-      <c r="T27" s="244"/>
-      <c r="U27" s="244"/>
-      <c r="V27" s="244"/>
-      <c r="W27" s="244"/>
+      <c r="N27" s="243"/>
+      <c r="O27" s="243"/>
+      <c r="P27" s="243"/>
+      <c r="Q27" s="243"/>
+      <c r="R27" s="243"/>
+      <c r="S27" s="243"/>
+      <c r="T27" s="243"/>
+      <c r="U27" s="243"/>
+      <c r="V27" s="243"/>
+      <c r="W27" s="243"/>
     </row>
     <row r="28" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="23" t="s">
@@ -8018,17 +8079,17 @@
       <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="10"/>
-      <c r="M28" s="244"/>
-      <c r="N28" s="244"/>
-      <c r="O28" s="244"/>
-      <c r="P28" s="244"/>
-      <c r="Q28" s="244"/>
-      <c r="R28" s="244"/>
-      <c r="S28" s="244"/>
-      <c r="T28" s="244"/>
-      <c r="U28" s="244"/>
-      <c r="V28" s="244"/>
-      <c r="W28" s="244"/>
+      <c r="M28" s="243"/>
+      <c r="N28" s="243"/>
+      <c r="O28" s="243"/>
+      <c r="P28" s="243"/>
+      <c r="Q28" s="243"/>
+      <c r="R28" s="243"/>
+      <c r="S28" s="243"/>
+      <c r="T28" s="243"/>
+      <c r="U28" s="243"/>
+      <c r="V28" s="243"/>
+      <c r="W28" s="243"/>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" s="23" t="s">
@@ -8048,17 +8109,17 @@
       <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="10"/>
-      <c r="M29" s="244"/>
-      <c r="N29" s="244"/>
-      <c r="O29" s="244"/>
-      <c r="P29" s="244"/>
-      <c r="Q29" s="244"/>
-      <c r="R29" s="244"/>
-      <c r="S29" s="244"/>
-      <c r="T29" s="244"/>
-      <c r="U29" s="244"/>
-      <c r="V29" s="244"/>
-      <c r="W29" s="244"/>
+      <c r="M29" s="243"/>
+      <c r="N29" s="243"/>
+      <c r="O29" s="243"/>
+      <c r="P29" s="243"/>
+      <c r="Q29" s="243"/>
+      <c r="R29" s="243"/>
+      <c r="S29" s="243"/>
+      <c r="T29" s="243"/>
+      <c r="U29" s="243"/>
+      <c r="V29" s="243"/>
+      <c r="W29" s="243"/>
     </row>
     <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="23" t="s">
@@ -8090,17 +8151,17 @@
       <c r="L30" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M30" s="244"/>
-      <c r="N30" s="244"/>
-      <c r="O30" s="244"/>
-      <c r="P30" s="244"/>
-      <c r="Q30" s="244"/>
-      <c r="R30" s="244"/>
-      <c r="S30" s="244"/>
-      <c r="T30" s="244"/>
-      <c r="U30" s="244"/>
-      <c r="V30" s="244"/>
-      <c r="W30" s="244"/>
+      <c r="M30" s="243"/>
+      <c r="N30" s="243"/>
+      <c r="O30" s="243"/>
+      <c r="P30" s="243"/>
+      <c r="Q30" s="243"/>
+      <c r="R30" s="243"/>
+      <c r="S30" s="243"/>
+      <c r="T30" s="243"/>
+      <c r="U30" s="243"/>
+      <c r="V30" s="243"/>
+      <c r="W30" s="243"/>
     </row>
     <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="23" t="s">
@@ -8132,17 +8193,17 @@
       <c r="L31" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M31" s="244"/>
-      <c r="N31" s="244"/>
-      <c r="O31" s="244"/>
-      <c r="P31" s="244"/>
-      <c r="Q31" s="244"/>
-      <c r="R31" s="244"/>
-      <c r="S31" s="244"/>
-      <c r="T31" s="244"/>
-      <c r="U31" s="244"/>
-      <c r="V31" s="244"/>
-      <c r="W31" s="244"/>
+      <c r="M31" s="243"/>
+      <c r="N31" s="243"/>
+      <c r="O31" s="243"/>
+      <c r="P31" s="243"/>
+      <c r="Q31" s="243"/>
+      <c r="R31" s="243"/>
+      <c r="S31" s="243"/>
+      <c r="T31" s="243"/>
+      <c r="U31" s="243"/>
+      <c r="V31" s="243"/>
+      <c r="W31" s="243"/>
     </row>
     <row r="32" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="23" t="s">
@@ -8152,9 +8213,7 @@
         <v>81</v>
       </c>
       <c r="D32" s="156"/>
-      <c r="E32" s="123" t="s">
-        <v>19</v>
-      </c>
+      <c r="E32" s="134"/>
       <c r="F32" s="107"/>
       <c r="G32" s="12"/>
       <c r="H32" s="6"/>
@@ -8162,17 +8221,17 @@
       <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="108"/>
-      <c r="M32" s="244"/>
-      <c r="N32" s="244"/>
-      <c r="O32" s="244"/>
-      <c r="P32" s="244"/>
-      <c r="Q32" s="244"/>
-      <c r="R32" s="244"/>
-      <c r="S32" s="244"/>
-      <c r="T32" s="244"/>
-      <c r="U32" s="244"/>
-      <c r="V32" s="244"/>
-      <c r="W32" s="244"/>
+      <c r="M32" s="243"/>
+      <c r="N32" s="243"/>
+      <c r="O32" s="243"/>
+      <c r="P32" s="243"/>
+      <c r="Q32" s="243"/>
+      <c r="R32" s="243"/>
+      <c r="S32" s="243"/>
+      <c r="T32" s="243"/>
+      <c r="U32" s="243"/>
+      <c r="V32" s="243"/>
+      <c r="W32" s="243"/>
     </row>
     <row r="33" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="22">
@@ -8190,17 +8249,17 @@
       <c r="J33" s="66"/>
       <c r="K33" s="66"/>
       <c r="L33" s="71"/>
-      <c r="M33" s="244"/>
-      <c r="N33" s="244"/>
-      <c r="O33" s="244"/>
-      <c r="P33" s="244"/>
-      <c r="Q33" s="244"/>
-      <c r="R33" s="244"/>
-      <c r="S33" s="244"/>
-      <c r="T33" s="244"/>
-      <c r="U33" s="244"/>
-      <c r="V33" s="244"/>
-      <c r="W33" s="244"/>
+      <c r="M33" s="243"/>
+      <c r="N33" s="243"/>
+      <c r="O33" s="243"/>
+      <c r="P33" s="243"/>
+      <c r="Q33" s="243"/>
+      <c r="R33" s="243"/>
+      <c r="S33" s="243"/>
+      <c r="T33" s="243"/>
+      <c r="U33" s="243"/>
+      <c r="V33" s="243"/>
+      <c r="W33" s="243"/>
     </row>
     <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="23" t="s">
@@ -8232,17 +8291,17 @@
       <c r="L34" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M34" s="244"/>
-      <c r="N34" s="244"/>
-      <c r="O34" s="244"/>
-      <c r="P34" s="244"/>
-      <c r="Q34" s="244"/>
-      <c r="R34" s="244"/>
-      <c r="S34" s="244"/>
-      <c r="T34" s="244"/>
-      <c r="U34" s="244"/>
-      <c r="V34" s="244"/>
-      <c r="W34" s="244"/>
+      <c r="M34" s="243"/>
+      <c r="N34" s="243"/>
+      <c r="O34" s="243"/>
+      <c r="P34" s="243"/>
+      <c r="Q34" s="243"/>
+      <c r="R34" s="243"/>
+      <c r="S34" s="243"/>
+      <c r="T34" s="243"/>
+      <c r="U34" s="243"/>
+      <c r="V34" s="243"/>
+      <c r="W34" s="243"/>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="23" t="s">
@@ -8274,17 +8333,17 @@
       <c r="L35" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="244"/>
-      <c r="N35" s="244"/>
-      <c r="O35" s="244"/>
-      <c r="P35" s="244"/>
-      <c r="Q35" s="244"/>
-      <c r="R35" s="244"/>
-      <c r="S35" s="244"/>
-      <c r="T35" s="244"/>
-      <c r="U35" s="244"/>
-      <c r="V35" s="244"/>
-      <c r="W35" s="244"/>
+      <c r="M35" s="243"/>
+      <c r="N35" s="243"/>
+      <c r="O35" s="243"/>
+      <c r="P35" s="243"/>
+      <c r="Q35" s="243"/>
+      <c r="R35" s="243"/>
+      <c r="S35" s="243"/>
+      <c r="T35" s="243"/>
+      <c r="U35" s="243"/>
+      <c r="V35" s="243"/>
+      <c r="W35" s="243"/>
     </row>
     <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="23" t="s">
@@ -8316,17 +8375,17 @@
       <c r="L36" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="244"/>
-      <c r="N36" s="244"/>
-      <c r="O36" s="244"/>
-      <c r="P36" s="244"/>
-      <c r="Q36" s="244"/>
-      <c r="R36" s="244"/>
-      <c r="S36" s="244"/>
-      <c r="T36" s="244"/>
-      <c r="U36" s="244"/>
-      <c r="V36" s="244"/>
-      <c r="W36" s="244"/>
+      <c r="M36" s="243"/>
+      <c r="N36" s="243"/>
+      <c r="O36" s="243"/>
+      <c r="P36" s="243"/>
+      <c r="Q36" s="243"/>
+      <c r="R36" s="243"/>
+      <c r="S36" s="243"/>
+      <c r="T36" s="243"/>
+      <c r="U36" s="243"/>
+      <c r="V36" s="243"/>
+      <c r="W36" s="243"/>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="23" t="s">
@@ -8358,17 +8417,17 @@
       <c r="L37" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M37" s="244"/>
-      <c r="N37" s="244"/>
-      <c r="O37" s="244"/>
-      <c r="P37" s="244"/>
-      <c r="Q37" s="244"/>
-      <c r="R37" s="244"/>
-      <c r="S37" s="244"/>
-      <c r="T37" s="244"/>
-      <c r="U37" s="244"/>
-      <c r="V37" s="244"/>
-      <c r="W37" s="244"/>
+      <c r="M37" s="243"/>
+      <c r="N37" s="243"/>
+      <c r="O37" s="243"/>
+      <c r="P37" s="243"/>
+      <c r="Q37" s="243"/>
+      <c r="R37" s="243"/>
+      <c r="S37" s="243"/>
+      <c r="T37" s="243"/>
+      <c r="U37" s="243"/>
+      <c r="V37" s="243"/>
+      <c r="W37" s="243"/>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="23" t="s">
@@ -8400,17 +8459,17 @@
       <c r="L38" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M38" s="244"/>
-      <c r="N38" s="244"/>
-      <c r="O38" s="244"/>
-      <c r="P38" s="244"/>
-      <c r="Q38" s="244"/>
-      <c r="R38" s="244"/>
-      <c r="S38" s="244"/>
-      <c r="T38" s="244"/>
-      <c r="U38" s="244"/>
-      <c r="V38" s="244"/>
-      <c r="W38" s="244"/>
+      <c r="M38" s="243"/>
+      <c r="N38" s="243"/>
+      <c r="O38" s="243"/>
+      <c r="P38" s="243"/>
+      <c r="Q38" s="243"/>
+      <c r="R38" s="243"/>
+      <c r="S38" s="243"/>
+      <c r="T38" s="243"/>
+      <c r="U38" s="243"/>
+      <c r="V38" s="243"/>
+      <c r="W38" s="243"/>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="23" t="s">
@@ -8442,17 +8501,17 @@
       <c r="L39" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M39" s="244"/>
-      <c r="N39" s="244"/>
-      <c r="O39" s="244"/>
-      <c r="P39" s="244"/>
-      <c r="Q39" s="244"/>
-      <c r="R39" s="244"/>
-      <c r="S39" s="244"/>
-      <c r="T39" s="244"/>
-      <c r="U39" s="244"/>
-      <c r="V39" s="244"/>
-      <c r="W39" s="244"/>
+      <c r="M39" s="243"/>
+      <c r="N39" s="243"/>
+      <c r="O39" s="243"/>
+      <c r="P39" s="243"/>
+      <c r="Q39" s="243"/>
+      <c r="R39" s="243"/>
+      <c r="S39" s="243"/>
+      <c r="T39" s="243"/>
+      <c r="U39" s="243"/>
+      <c r="V39" s="243"/>
+      <c r="W39" s="243"/>
     </row>
     <row r="40" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="23" t="s">
@@ -8462,9 +8521,7 @@
         <v>96</v>
       </c>
       <c r="D40" s="156"/>
-      <c r="E40" s="123" t="s">
-        <v>19</v>
-      </c>
+      <c r="E40" s="123"/>
       <c r="F40" s="38"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -8472,17 +8529,17 @@
       <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="10"/>
-      <c r="M40" s="244"/>
-      <c r="N40" s="244"/>
-      <c r="O40" s="244"/>
-      <c r="P40" s="244"/>
-      <c r="Q40" s="244"/>
-      <c r="R40" s="244"/>
-      <c r="S40" s="244"/>
-      <c r="T40" s="244"/>
-      <c r="U40" s="244"/>
-      <c r="V40" s="244"/>
-      <c r="W40" s="244"/>
+      <c r="M40" s="243"/>
+      <c r="N40" s="243"/>
+      <c r="O40" s="243"/>
+      <c r="P40" s="243"/>
+      <c r="Q40" s="243"/>
+      <c r="R40" s="243"/>
+      <c r="S40" s="243"/>
+      <c r="T40" s="243"/>
+      <c r="U40" s="243"/>
+      <c r="V40" s="243"/>
+      <c r="W40" s="243"/>
     </row>
     <row r="41" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B41" s="239" t="s">
@@ -8500,17 +8557,17 @@
       <c r="J41" s="66"/>
       <c r="K41" s="66"/>
       <c r="L41" s="71"/>
-      <c r="M41" s="244"/>
-      <c r="N41" s="244"/>
-      <c r="O41" s="244"/>
-      <c r="P41" s="244"/>
-      <c r="Q41" s="244"/>
-      <c r="R41" s="244"/>
-      <c r="S41" s="244"/>
-      <c r="T41" s="244"/>
-      <c r="U41" s="244"/>
-      <c r="V41" s="244"/>
-      <c r="W41" s="244"/>
+      <c r="M41" s="243"/>
+      <c r="N41" s="243"/>
+      <c r="O41" s="243"/>
+      <c r="P41" s="243"/>
+      <c r="Q41" s="243"/>
+      <c r="R41" s="243"/>
+      <c r="S41" s="243"/>
+      <c r="T41" s="243"/>
+      <c r="U41" s="243"/>
+      <c r="V41" s="243"/>
+      <c r="W41" s="243"/>
     </row>
     <row r="42" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B42" s="23" t="s">
@@ -8542,17 +8599,17 @@
       <c r="L42" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M42" s="244"/>
-      <c r="N42" s="244"/>
-      <c r="O42" s="244"/>
-      <c r="P42" s="244"/>
-      <c r="Q42" s="244"/>
-      <c r="R42" s="244"/>
-      <c r="S42" s="244"/>
-      <c r="T42" s="244"/>
-      <c r="U42" s="244"/>
-      <c r="V42" s="244"/>
-      <c r="W42" s="244"/>
+      <c r="M42" s="243"/>
+      <c r="N42" s="243"/>
+      <c r="O42" s="243"/>
+      <c r="P42" s="243"/>
+      <c r="Q42" s="243"/>
+      <c r="R42" s="243"/>
+      <c r="S42" s="243"/>
+      <c r="T42" s="243"/>
+      <c r="U42" s="243"/>
+      <c r="V42" s="243"/>
+      <c r="W42" s="243"/>
     </row>
     <row r="43" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B43" s="23" t="s">
@@ -8562,9 +8619,7 @@
         <v>101</v>
       </c>
       <c r="D43" s="156"/>
-      <c r="E43" s="123" t="s">
-        <v>19</v>
-      </c>
+      <c r="E43" s="123"/>
       <c r="F43" s="36"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -8572,17 +8627,17 @@
       <c r="J43" s="6"/>
       <c r="K43" s="15"/>
       <c r="L43" s="10"/>
-      <c r="M43" s="244"/>
-      <c r="N43" s="244"/>
-      <c r="O43" s="244"/>
-      <c r="P43" s="244"/>
-      <c r="Q43" s="244"/>
-      <c r="R43" s="244"/>
-      <c r="S43" s="244"/>
-      <c r="T43" s="244"/>
-      <c r="U43" s="244"/>
-      <c r="V43" s="244"/>
-      <c r="W43" s="244"/>
+      <c r="M43" s="243"/>
+      <c r="N43" s="243"/>
+      <c r="O43" s="243"/>
+      <c r="P43" s="243"/>
+      <c r="Q43" s="243"/>
+      <c r="R43" s="243"/>
+      <c r="S43" s="243"/>
+      <c r="T43" s="243"/>
+      <c r="U43" s="243"/>
+      <c r="V43" s="243"/>
+      <c r="W43" s="243"/>
     </row>
     <row r="44" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="239" t="s">
@@ -8600,17 +8655,17 @@
       <c r="J44" s="66"/>
       <c r="K44" s="66"/>
       <c r="L44" s="71"/>
-      <c r="M44" s="244"/>
-      <c r="N44" s="244"/>
-      <c r="O44" s="244"/>
-      <c r="P44" s="244"/>
-      <c r="Q44" s="244"/>
-      <c r="R44" s="244"/>
-      <c r="S44" s="244"/>
-      <c r="T44" s="244"/>
-      <c r="U44" s="244"/>
-      <c r="V44" s="244"/>
-      <c r="W44" s="244"/>
+      <c r="M44" s="243"/>
+      <c r="N44" s="243"/>
+      <c r="O44" s="243"/>
+      <c r="P44" s="243"/>
+      <c r="Q44" s="243"/>
+      <c r="R44" s="243"/>
+      <c r="S44" s="243"/>
+      <c r="T44" s="243"/>
+      <c r="U44" s="243"/>
+      <c r="V44" s="243"/>
+      <c r="W44" s="243"/>
     </row>
     <row r="45" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="23" t="s">
@@ -8642,17 +8697,17 @@
       <c r="L45" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M45" s="244"/>
-      <c r="N45" s="244"/>
-      <c r="O45" s="244"/>
-      <c r="P45" s="244"/>
-      <c r="Q45" s="244"/>
-      <c r="R45" s="244"/>
-      <c r="S45" s="244"/>
-      <c r="T45" s="244"/>
-      <c r="U45" s="244"/>
-      <c r="V45" s="244"/>
-      <c r="W45" s="244"/>
+      <c r="M45" s="243"/>
+      <c r="N45" s="243"/>
+      <c r="O45" s="243"/>
+      <c r="P45" s="243"/>
+      <c r="Q45" s="243"/>
+      <c r="R45" s="243"/>
+      <c r="S45" s="243"/>
+      <c r="T45" s="243"/>
+      <c r="U45" s="243"/>
+      <c r="V45" s="243"/>
+      <c r="W45" s="243"/>
     </row>
     <row r="46" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="23" t="s">
@@ -8913,9 +8968,7 @@
         <v>123</v>
       </c>
       <c r="D55" s="156"/>
-      <c r="E55" s="123" t="s">
-        <v>19</v>
-      </c>
+      <c r="E55" s="123"/>
       <c r="F55" s="107"/>
       <c r="G55" s="12"/>
       <c r="H55" s="6"/>
@@ -9183,9 +9236,7 @@
       <c r="E64" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="F64" s="37" t="s">
-        <v>16</v>
-      </c>
+      <c r="F64" s="107"/>
       <c r="G64" s="9" t="s">
         <v>20</v>
       </c>
@@ -9213,9 +9264,7 @@
         <v>142</v>
       </c>
       <c r="D65" s="156"/>
-      <c r="E65" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E65" s="123"/>
       <c r="F65" s="107"/>
       <c r="G65" s="12"/>
       <c r="H65" s="6"/>
@@ -9447,9 +9496,7 @@
         <v>157</v>
       </c>
       <c r="D73" s="156"/>
-      <c r="E73" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E73" s="123"/>
       <c r="F73" s="107"/>
       <c r="G73" s="12"/>
       <c r="H73" s="6"/>
@@ -9611,13 +9658,11 @@
       <c r="B79" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="C79" s="115" t="s">
+      <c r="C79" t="s">
         <v>168</v>
       </c>
       <c r="D79" s="156"/>
-      <c r="E79" s="123" t="s">
-        <v>19</v>
-      </c>
+      <c r="E79" s="123"/>
       <c r="F79" s="107"/>
       <c r="G79" s="12"/>
       <c r="H79" s="6"/>
@@ -9661,10 +9706,10 @@
       <c r="H81" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I81" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J81" s="9" t="s">
+      <c r="I81" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J81" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K81" s="14" t="s">
@@ -9692,10 +9737,10 @@
       <c r="H82" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I82" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J82" s="9" t="s">
+      <c r="I82" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J82" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K82" s="14" t="s">
@@ -9724,10 +9769,10 @@
         <v>20</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K83" s="14" t="s">
         <v>24</v>
@@ -9754,10 +9799,10 @@
       <c r="H84" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I84" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J84" s="9" t="s">
+      <c r="I84" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J84" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K84" s="14" t="s">
@@ -9785,10 +9830,10 @@
       <c r="H85" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I85" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J85" s="9" t="s">
+      <c r="I85" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J85" s="13" t="s">
         <v>24</v>
       </c>
       <c r="K85" s="14" t="s">
@@ -9868,9 +9913,7 @@
         <v>185</v>
       </c>
       <c r="D88" s="156"/>
-      <c r="E88" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E88" s="123"/>
       <c r="F88" s="107"/>
       <c r="G88" s="12"/>
       <c r="H88" s="6"/>
@@ -9936,7 +9979,7 @@
       </c>
       <c r="D91" s="156"/>
       <c r="E91" s="182" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F91" s="36"/>
       <c r="G91" s="13" t="s">
@@ -10096,9 +10139,7 @@
         <v>200</v>
       </c>
       <c r="D96" s="156"/>
-      <c r="E96" s="123" t="s">
-        <v>19</v>
-      </c>
+      <c r="E96" s="123"/>
       <c r="F96" s="107"/>
       <c r="G96" s="12"/>
       <c r="H96" s="6"/>
@@ -10138,10 +10179,10 @@
       <c r="F98" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G98" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H98" s="13" t="s">
+      <c r="G98" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I98" s="13" t="s">
@@ -10171,10 +10212,10 @@
       <c r="F99" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="G99" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H99" s="13" t="s">
+      <c r="G99" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="9" t="s">
         <v>20</v>
       </c>
       <c r="I99" s="13" t="s">
@@ -10231,9 +10272,7 @@
         <v>209</v>
       </c>
       <c r="D101" s="156"/>
-      <c r="E101" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E101" s="123"/>
       <c r="F101" s="107"/>
       <c r="G101" s="12"/>
       <c r="H101" s="6"/>
@@ -10461,9 +10500,7 @@
         <v>224</v>
       </c>
       <c r="D109" s="156"/>
-      <c r="E109" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E109" s="123"/>
       <c r="F109" s="107"/>
       <c r="G109" s="12"/>
       <c r="H109" s="6"/>
@@ -10694,9 +10731,7 @@
         <v>242</v>
       </c>
       <c r="D118" s="156"/>
-      <c r="E118" s="123" t="s">
-        <v>33</v>
-      </c>
+      <c r="E118" s="123"/>
       <c r="F118" s="107"/>
       <c r="G118" s="12"/>
       <c r="H118" s="6"/>
@@ -10957,9 +10992,7 @@
         <v>259</v>
       </c>
       <c r="D127" s="156"/>
-      <c r="E127" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E127" s="123"/>
       <c r="F127" s="107"/>
       <c r="G127" s="12"/>
       <c r="H127" s="6"/>
@@ -11253,9 +11286,7 @@
         <v>278</v>
       </c>
       <c r="D137" s="156"/>
-      <c r="E137" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E137" s="123"/>
       <c r="F137" s="107"/>
       <c r="G137" s="12"/>
       <c r="H137" s="6"/>
@@ -11463,9 +11494,7 @@
         <v>293</v>
       </c>
       <c r="D145" s="156"/>
-      <c r="E145" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E145" s="123"/>
       <c r="F145" s="107"/>
       <c r="G145" s="12"/>
       <c r="H145" s="6"/>
@@ -11526,13 +11555,11 @@
       <c r="B148" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="C148" s="115" t="s">
+      <c r="C148" t="s">
         <v>297</v>
       </c>
       <c r="D148" s="156"/>
-      <c r="E148" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E148" s="123"/>
       <c r="F148" s="107"/>
       <c r="G148" s="12"/>
       <c r="H148" s="6"/>
@@ -11752,9 +11779,7 @@
         <v>312</v>
       </c>
       <c r="D156" s="156"/>
-      <c r="E156" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E156" s="123"/>
       <c r="F156" s="107"/>
       <c r="G156" s="12"/>
       <c r="H156" s="6"/>
@@ -11819,9 +11844,7 @@
         <v>318</v>
       </c>
       <c r="D159" s="156"/>
-      <c r="E159" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E159" s="123"/>
       <c r="F159" s="107"/>
       <c r="G159" s="12"/>
       <c r="H159" s="6"/>
@@ -12025,9 +12048,7 @@
         <v>334</v>
       </c>
       <c r="D167" s="156"/>
-      <c r="E167" s="123" t="s">
-        <v>15</v>
-      </c>
+      <c r="E167" s="123"/>
       <c r="F167" s="107"/>
       <c r="G167" s="12"/>
       <c r="H167" s="6"/>
@@ -12312,9 +12333,7 @@
         <v>354</v>
       </c>
       <c r="D178" s="156"/>
-      <c r="E178" s="123" t="s">
-        <v>33</v>
-      </c>
+      <c r="E178" s="123"/>
       <c r="F178" s="107"/>
       <c r="G178" s="12"/>
       <c r="H178" s="6"/>
@@ -12362,7 +12381,7 @@
       <c r="J180" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K180" s="14" t="s">
+      <c r="K180" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L180" s="10" t="s">
@@ -12390,7 +12409,7 @@
       <c r="J181" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K181" s="14" t="s">
+      <c r="K181" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L181" s="10" t="s">
@@ -12406,9 +12425,7 @@
         <v>361</v>
       </c>
       <c r="D182" s="160"/>
-      <c r="E182" s="187" t="s">
-        <v>15</v>
-      </c>
+      <c r="E182" s="123"/>
       <c r="F182" s="107"/>
       <c r="G182" s="12"/>
       <c r="H182" s="6"/>
@@ -12456,7 +12473,7 @@
       <c r="J184" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K184" s="14" t="s">
+      <c r="K184" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L184" s="10" t="s">
@@ -12484,7 +12501,7 @@
       <c r="J185" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K185" s="14" t="s">
+      <c r="K185" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L185" s="10" t="s">
@@ -12500,9 +12517,7 @@
         <v>366</v>
       </c>
       <c r="D186" s="160"/>
-      <c r="E186" s="187" t="s">
-        <v>15</v>
-      </c>
+      <c r="E186" s="123"/>
       <c r="F186" s="107"/>
       <c r="G186" s="12"/>
       <c r="H186" s="6"/>
@@ -12550,7 +12565,7 @@
       <c r="J188" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K188" s="14" t="s">
+      <c r="K188" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L188" s="10" t="s">
@@ -12578,7 +12593,7 @@
       <c r="J189" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K189" s="14" t="s">
+      <c r="K189" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L189" s="10" t="s">
@@ -12594,9 +12609,7 @@
         <v>372</v>
       </c>
       <c r="D190" s="160"/>
-      <c r="E190" s="187" t="s">
-        <v>15</v>
-      </c>
+      <c r="E190" s="123"/>
       <c r="F190" s="36"/>
       <c r="G190" s="6"/>
       <c r="H190" s="6"/>
@@ -12644,7 +12657,7 @@
       <c r="J192" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K192" s="14" t="s">
+      <c r="K192" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L192" s="10" t="s">
@@ -12672,7 +12685,7 @@
       <c r="J193" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K193" s="14" t="s">
+      <c r="K193" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L193" s="10" t="s">
@@ -12688,9 +12701,7 @@
         <v>378</v>
       </c>
       <c r="D194" s="160"/>
-      <c r="E194" s="187" t="s">
-        <v>15</v>
-      </c>
+      <c r="E194" s="123"/>
       <c r="F194" s="36"/>
       <c r="G194" s="6"/>
       <c r="H194" s="6"/>
@@ -12738,7 +12749,7 @@
       <c r="J196" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K196" s="14" t="s">
+      <c r="K196" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L196" s="10" t="s">
@@ -12766,7 +12777,7 @@
       <c r="J197" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K197" s="14" t="s">
+      <c r="K197" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L197" s="10" t="s">
@@ -12782,9 +12793,7 @@
         <v>383</v>
       </c>
       <c r="D198" s="160"/>
-      <c r="E198" s="187" t="s">
-        <v>15</v>
-      </c>
+      <c r="E198" s="123"/>
       <c r="F198" s="36"/>
       <c r="G198" s="6"/>
       <c r="H198" s="6"/>
@@ -12832,7 +12841,7 @@
       <c r="J200" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K200" s="14" t="s">
+      <c r="K200" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L200" s="10" t="s">
@@ -12860,7 +12869,7 @@
       <c r="J201" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K201" s="14" t="s">
+      <c r="K201" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L201" s="10" t="s">
@@ -12876,9 +12885,7 @@
         <v>388</v>
       </c>
       <c r="D202" s="160"/>
-      <c r="E202" s="187" t="s">
-        <v>15</v>
-      </c>
+      <c r="E202" s="123"/>
       <c r="F202" s="36"/>
       <c r="G202" s="6"/>
       <c r="H202" s="6"/>
@@ -12926,7 +12933,7 @@
       <c r="J204" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K204" s="14" t="s">
+      <c r="K204" s="6" t="s">
         <v>24</v>
       </c>
       <c r="L204" s="10" t="s">
@@ -12942,9 +12949,7 @@
         <v>393</v>
       </c>
       <c r="D205" s="160"/>
-      <c r="E205" s="187" t="s">
-        <v>15</v>
-      </c>
+      <c r="E205" s="123"/>
       <c r="F205" s="36"/>
       <c r="G205" s="6"/>
       <c r="H205" s="6"/>
@@ -13258,9 +13263,7 @@
         <v>415</v>
       </c>
       <c r="D217" s="161"/>
-      <c r="E217" s="191" t="s">
-        <v>27</v>
-      </c>
+      <c r="E217" s="123"/>
       <c r="F217" s="36"/>
       <c r="G217" s="6"/>
       <c r="H217" s="6"/>
@@ -13321,9 +13324,7 @@
         <v>421</v>
       </c>
       <c r="D220" s="156"/>
-      <c r="E220" s="191" t="s">
-        <v>27</v>
-      </c>
+      <c r="E220" s="123"/>
       <c r="F220" s="36"/>
       <c r="G220" s="6"/>
       <c r="H220" s="6"/>
@@ -13605,9 +13606,7 @@
         <v>441</v>
       </c>
       <c r="D230" s="161"/>
-      <c r="E230" s="191" t="s">
-        <v>27</v>
-      </c>
+      <c r="E230" s="123"/>
       <c r="F230" s="36"/>
       <c r="G230" s="6"/>
       <c r="H230" s="6"/>
@@ -13827,9 +13826,7 @@
         <v>457</v>
       </c>
       <c r="D238" s="161"/>
-      <c r="E238" s="191" t="s">
-        <v>27</v>
-      </c>
+      <c r="E238" s="123"/>
       <c r="F238" s="36"/>
       <c r="G238" s="6"/>
       <c r="H238" s="6"/>
@@ -14010,9 +14007,7 @@
         <v>469</v>
       </c>
       <c r="D245" s="161"/>
-      <c r="E245" s="191" t="s">
-        <v>27</v>
-      </c>
+      <c r="E245" s="123"/>
       <c r="F245" s="36"/>
       <c r="G245" s="6"/>
       <c r="H245" s="6"/>
@@ -14166,9 +14161,7 @@
         <v>480</v>
       </c>
       <c r="D251" s="161"/>
-      <c r="E251" s="191" t="s">
-        <v>27</v>
-      </c>
+      <c r="E251" s="123"/>
       <c r="F251" s="36"/>
       <c r="G251" s="6"/>
       <c r="H251" s="6"/>
@@ -14322,9 +14315,7 @@
         <v>491</v>
       </c>
       <c r="D257" s="161"/>
-      <c r="E257" s="191" t="s">
-        <v>27</v>
-      </c>
+      <c r="E257" s="123"/>
       <c r="F257" s="36"/>
       <c r="G257" s="15"/>
       <c r="H257" s="15"/>
@@ -15029,7 +15020,7 @@
         <v>542</v>
       </c>
       <c r="C284" s="114" t="s">
-        <v>71</v>
+        <v>543</v>
       </c>
       <c r="D284" s="165"/>
       <c r="E284" s="183"/>
@@ -15043,10 +15034,10 @@
     </row>
     <row r="285" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B285" s="31" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C285" s="121" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D285" s="163"/>
       <c r="E285" s="123" t="s">
@@ -15074,10 +15065,10 @@
     </row>
     <row r="286" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B286" s="31" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C286" s="121" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D286" s="163"/>
       <c r="E286" s="193" t="s">
@@ -15105,10 +15096,10 @@
     </row>
     <row r="287" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B287" s="31" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C287" s="121" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D287" s="163"/>
       <c r="E287" s="193" t="s">
@@ -15136,10 +15127,10 @@
     </row>
     <row r="288" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B288" s="31" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C288" s="121" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D288" s="163"/>
       <c r="E288" s="193" t="s">
@@ -15167,10 +15158,10 @@
     </row>
     <row r="289" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B289" s="31" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C289" s="121" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D289" s="163"/>
       <c r="E289" s="193" t="s">
@@ -15198,10 +15189,10 @@
     </row>
     <row r="290" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B290" s="31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C290" s="121" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D290" s="163"/>
       <c r="E290" s="193" t="s">
@@ -15229,10 +15220,10 @@
     </row>
     <row r="291" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B291" s="31" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C291" s="121" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D291" s="163"/>
       <c r="E291" s="193" t="s">
@@ -15248,10 +15239,10 @@
     </row>
     <row r="292" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B292" s="32" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C292" s="113" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D292" s="164"/>
       <c r="E292" s="183"/>
@@ -15265,10 +15256,10 @@
     </row>
     <row r="293" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B293" s="31" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C293" s="121" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D293" s="163"/>
       <c r="E293" s="193" t="s">
@@ -15296,7 +15287,7 @@
     </row>
     <row r="294" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B294" s="31" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C294" s="121" t="s">
         <v>494</v>
@@ -15327,10 +15318,10 @@
     </row>
     <row r="295" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B295" s="31" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C295" s="121" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D295" s="163"/>
       <c r="E295" s="193" t="s">
@@ -15354,10 +15345,10 @@
     </row>
     <row r="296" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B296" s="31" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C296" s="121" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D296" s="163"/>
       <c r="E296" s="193" t="s">
@@ -15385,7 +15376,7 @@
     </row>
     <row r="297" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B297" s="31" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C297" s="121" t="s">
         <v>539</v>
@@ -15412,10 +15403,10 @@
     </row>
     <row r="298" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B298" s="31" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C298" s="121" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D298" s="163"/>
       <c r="E298" s="193" t="s">
@@ -15439,10 +15430,10 @@
     </row>
     <row r="299" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B299" s="31" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C299" s="121" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D299" s="163"/>
       <c r="E299" s="193" t="s">
@@ -15458,10 +15449,10 @@
     </row>
     <row r="300" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B300" s="32" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C300" s="113" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D300" s="164"/>
       <c r="E300" s="183"/>
@@ -15475,10 +15466,10 @@
     </row>
     <row r="301" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B301" s="31" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C301" s="121" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D301" s="163"/>
       <c r="E301" s="193" t="s">
@@ -15506,10 +15497,10 @@
     </row>
     <row r="302" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B302" s="31" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C302" s="121" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D302" s="163"/>
       <c r="E302" s="193" t="s">
@@ -15537,10 +15528,10 @@
     </row>
     <row r="303" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B303" s="31" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C303" s="121" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D303" s="163"/>
       <c r="E303" s="193" t="s">
@@ -15568,10 +15559,10 @@
     </row>
     <row r="304" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B304" s="31" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C304" s="121" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D304" s="163"/>
       <c r="E304" s="193" t="s">
@@ -15587,10 +15578,10 @@
     </row>
     <row r="305" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B305" s="32" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C305" s="113" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D305" s="164"/>
       <c r="E305" s="183"/>
@@ -15604,10 +15595,10 @@
     </row>
     <row r="306" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B306" s="31" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C306" s="121" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D306" s="163"/>
       <c r="E306" s="193" t="s">
@@ -15635,10 +15626,10 @@
     </row>
     <row r="307" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B307" s="31" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C307" s="121" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D307" s="163"/>
       <c r="E307" s="193" t="s">
@@ -15666,10 +15657,10 @@
     </row>
     <row r="308" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B308" s="31" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C308" s="121" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D308" s="163"/>
       <c r="E308" s="193" t="s">
@@ -15697,10 +15688,10 @@
     </row>
     <row r="309" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B309" s="31" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C309" s="121" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D309" s="163"/>
       <c r="E309" s="193" t="s">
@@ -15728,10 +15719,10 @@
     </row>
     <row r="310" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B310" s="31" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C310" s="121" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D310" s="163"/>
       <c r="E310" s="193" t="s">
@@ -15759,10 +15750,10 @@
     </row>
     <row r="311" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B311" s="31" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C311" s="121" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D311" s="163"/>
       <c r="E311" s="193" t="s">
@@ -15790,10 +15781,10 @@
     </row>
     <row r="312" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B312" s="31" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C312" s="121" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D312" s="163"/>
       <c r="E312" s="193" t="s">
@@ -15821,10 +15812,10 @@
     </row>
     <row r="313" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B313" s="31" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C313" s="121" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D313" s="163"/>
       <c r="E313" s="193" t="s">
@@ -15852,10 +15843,10 @@
     </row>
     <row r="314" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B314" s="31" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C314" s="121" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D314" s="163"/>
       <c r="E314" s="193" t="s">
@@ -15871,10 +15862,10 @@
     </row>
     <row r="315" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B315" s="32" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C315" s="113" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D315" s="164"/>
       <c r="E315" s="183"/>
@@ -15888,10 +15879,10 @@
     </row>
     <row r="316" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B316" s="31" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C316" s="121" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D316" s="163"/>
       <c r="E316" s="193" t="s">
@@ -15919,10 +15910,10 @@
     </row>
     <row r="317" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B317" s="31" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C317" s="121" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D317" s="163"/>
       <c r="E317" s="193" t="s">
@@ -15950,10 +15941,10 @@
     </row>
     <row r="318" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B318" s="31" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C318" s="121" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D318" s="163"/>
       <c r="E318" s="193" t="s">
@@ -15981,10 +15972,10 @@
     </row>
     <row r="319" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B319" s="31" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C319" s="121" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D319" s="163"/>
       <c r="E319" s="193" t="s">
@@ -16012,10 +16003,10 @@
     </row>
     <row r="320" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B320" s="31" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C320" s="121" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D320" s="163"/>
       <c r="E320" s="193" t="s">
@@ -16031,7 +16022,7 @@
     </row>
     <row r="321" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B321" s="32" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C321" s="113" t="s">
         <v>328</v>
@@ -16048,10 +16039,10 @@
     </row>
     <row r="322" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B322" s="31" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C322" s="121" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D322" s="163"/>
       <c r="E322" s="193" t="s">
@@ -16079,10 +16070,10 @@
     </row>
     <row r="323" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B323" s="31" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C323" s="121" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D323" s="163"/>
       <c r="E323" s="193" t="s">
@@ -16110,10 +16101,10 @@
     </row>
     <row r="324" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B324" s="31" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C324" s="121" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D324" s="163"/>
       <c r="E324" s="193" t="s">
@@ -16141,10 +16132,10 @@
     </row>
     <row r="325" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B325" s="31" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C325" s="121" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D325" s="163"/>
       <c r="E325" s="193" t="s">
@@ -16160,10 +16151,10 @@
     </row>
     <row r="326" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B326" s="32" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C326" s="113" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D326" s="164"/>
       <c r="E326" s="183"/>
@@ -16177,10 +16168,10 @@
     </row>
     <row r="327" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B327" s="31" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C327" s="121" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D327" s="163"/>
       <c r="E327" s="193" t="s">
@@ -16208,10 +16199,10 @@
     </row>
     <row r="328" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B328" s="31" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C328" s="121" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D328" s="163"/>
       <c r="E328" s="193" t="s">
@@ -16239,10 +16230,10 @@
     </row>
     <row r="329" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B329" s="31" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C329" s="121" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D329" s="163"/>
       <c r="E329" s="193" t="s">
@@ -16270,10 +16261,10 @@
     </row>
     <row r="330" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B330" s="31" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C330" s="121" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D330" s="163"/>
       <c r="E330" s="193" t="s">
@@ -16301,10 +16292,10 @@
     </row>
     <row r="331" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B331" s="31" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C331" s="121" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D331" s="163"/>
       <c r="E331" s="193" t="s">
@@ -16320,10 +16311,10 @@
     </row>
     <row r="332" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B332" s="32" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C332" s="113" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D332" s="164"/>
       <c r="E332" s="183"/>
@@ -16337,10 +16328,10 @@
     </row>
     <row r="333" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B333" s="31" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C333" s="121" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D333" s="163"/>
       <c r="E333" s="193" t="s">
@@ -16368,10 +16359,10 @@
     </row>
     <row r="334" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B334" s="31" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C334" s="121" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D334" s="163"/>
       <c r="E334" s="193" t="s">
@@ -16399,10 +16390,10 @@
     </row>
     <row r="335" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B335" s="31" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C335" s="121" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D335" s="163"/>
       <c r="E335" s="193" t="s">
@@ -16418,10 +16409,10 @@
     </row>
     <row r="336" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B336" s="32" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C336" s="113" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D336" s="164"/>
       <c r="E336" s="183"/>
@@ -16435,10 +16426,10 @@
     </row>
     <row r="337" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B337" s="31" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C337" s="121" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D337" s="163"/>
       <c r="E337" s="193" t="s">
@@ -16466,10 +16457,10 @@
     </row>
     <row r="338" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B338" s="31" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C338" s="121" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D338" s="163"/>
       <c r="E338" s="193" t="s">
@@ -16497,10 +16488,10 @@
     </row>
     <row r="339" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B339" s="31" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C339" s="121" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D339" s="163"/>
       <c r="E339" s="193" t="s">
@@ -16528,10 +16519,10 @@
     </row>
     <row r="340" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B340" s="31" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C340" s="121" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D340" s="163"/>
       <c r="E340" s="193" t="s">
@@ -16547,10 +16538,10 @@
     </row>
     <row r="341" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B341" s="32" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C341" s="113" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D341" s="164"/>
       <c r="E341" s="183"/>
@@ -16567,7 +16558,7 @@
         <v>7</v>
       </c>
       <c r="C342" s="225" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D342" s="226"/>
       <c r="E342" s="194"/>
@@ -16584,7 +16575,7 @@
         <v>70</v>
       </c>
       <c r="C343" s="114" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D343" s="165"/>
       <c r="E343" s="183"/>
@@ -16598,10 +16589,10 @@
     </row>
     <row r="344" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B344" s="34" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C344" s="118" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D344" s="160"/>
       <c r="E344" s="123" t="s">
@@ -16629,10 +16620,10 @@
     </row>
     <row r="345" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B345" s="34" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C345" s="118" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D345" s="160"/>
       <c r="E345" s="123" t="s">
@@ -16660,10 +16651,10 @@
     </row>
     <row r="346" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B346" s="34" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C346" s="118" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D346" s="160"/>
       <c r="E346" s="123" t="s">
@@ -16691,10 +16682,10 @@
     </row>
     <row r="347" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B347" s="34" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C347" s="118" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D347" s="160"/>
       <c r="E347" s="123" t="s">
@@ -16722,10 +16713,10 @@
     </row>
     <row r="348" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B348" s="34" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C348" s="118" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D348" s="160"/>
       <c r="E348" s="123" t="s">
@@ -16753,10 +16744,10 @@
     </row>
     <row r="349" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B349" s="34" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C349" s="118" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D349" s="160"/>
       <c r="E349" s="123" t="s">
@@ -16784,10 +16775,10 @@
     </row>
     <row r="350" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B350" s="34" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C350" s="118" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D350" s="160"/>
       <c r="E350" s="123" t="s">
@@ -16815,10 +16806,10 @@
     </row>
     <row r="351" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B351" s="34" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C351" s="118" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D351" s="160"/>
       <c r="E351" s="123" t="s">
@@ -16837,7 +16828,7 @@
         <v>71</v>
       </c>
       <c r="C352" s="114" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D352" s="165"/>
       <c r="E352" s="183"/>
@@ -16851,10 +16842,10 @@
     </row>
     <row r="353" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B353" s="34" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C353" s="118" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D353" s="160"/>
       <c r="E353" s="123" t="s">
@@ -16882,10 +16873,10 @@
     </row>
     <row r="354" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B354" s="34" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C354" s="118" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D354" s="160"/>
       <c r="E354" s="123" t="s">
@@ -16913,10 +16904,10 @@
     </row>
     <row r="355" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B355" s="34" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C355" s="118" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D355" s="160"/>
       <c r="E355" s="123" t="s">
@@ -16944,10 +16935,10 @@
     </row>
     <row r="356" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B356" s="34" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C356" s="118" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D356" s="160"/>
       <c r="E356" s="123" t="s">
@@ -16975,10 +16966,10 @@
     </row>
     <row r="357" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B357" s="34" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C357" s="118" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D357" s="160"/>
       <c r="E357" s="123" t="s">
@@ -17006,10 +16997,10 @@
     </row>
     <row r="358" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B358" s="34" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C358" s="118" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D358" s="160"/>
       <c r="E358" s="123" t="s">
@@ -17037,10 +17028,10 @@
     </row>
     <row r="359" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B359" s="34" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C359" s="118" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D359" s="160"/>
       <c r="E359" s="123" t="s">
@@ -17059,7 +17050,7 @@
         <v>72</v>
       </c>
       <c r="C360" s="110" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D360" s="155"/>
       <c r="E360" s="183"/>
@@ -17073,10 +17064,10 @@
     </row>
     <row r="361" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B361" s="34" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C361" s="118" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D361" s="160"/>
       <c r="E361" s="123" t="s">
@@ -17096,10 +17087,10 @@
     </row>
     <row r="362" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B362" s="34" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C362" s="118" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D362" s="160"/>
       <c r="E362" s="123" t="s">
@@ -17119,10 +17110,10 @@
     </row>
     <row r="363" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B363" s="34" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C363" s="118" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D363" s="160"/>
       <c r="E363" s="123" t="s">
@@ -17142,10 +17133,10 @@
     </row>
     <row r="364" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B364" s="34" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C364" s="118" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D364" s="160"/>
       <c r="E364" s="123" t="s">
@@ -17165,10 +17156,10 @@
     </row>
     <row r="365" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B365" s="34" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C365" s="118" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D365" s="160"/>
       <c r="E365" s="123" t="s">
@@ -17188,10 +17179,10 @@
     </row>
     <row r="366" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B366" s="34" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C366" s="118" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D366" s="160"/>
       <c r="E366" s="123" t="s">
@@ -17211,10 +17202,10 @@
     </row>
     <row r="367" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B367" s="34" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C367" s="118" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D367" s="160"/>
       <c r="E367" s="123" t="s">
@@ -17233,7 +17224,7 @@
         <v>73</v>
       </c>
       <c r="C368" s="109" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D368" s="154"/>
       <c r="E368" s="183"/>
@@ -17247,18 +17238,22 @@
     </row>
     <row r="369" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B369" s="35" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C369" s="122" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="D369" s="166"/>
       <c r="E369" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="F369" s="245"/>
-      <c r="G369" s="246"/>
-      <c r="H369" s="6"/>
+      <c r="F369" s="244"/>
+      <c r="G369" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H369" s="9" t="s">
+        <v>20</v>
+      </c>
       <c r="I369" s="8" t="s">
         <v>24</v>
       </c>
@@ -17274,17 +17269,17 @@
     </row>
     <row r="370" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B370" s="35" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C370" s="122" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D370" s="166"/>
       <c r="E370" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="F370" s="245"/>
-      <c r="G370" s="246"/>
+      <c r="F370" s="244"/>
+      <c r="G370" s="245"/>
       <c r="H370" s="6"/>
       <c r="I370" s="8" t="s">
         <v>24</v>
@@ -17301,16 +17296,16 @@
     </row>
     <row r="371" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B371" s="35" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C371" s="122" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D371" s="166"/>
       <c r="E371" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="F371" s="245"/>
+      <c r="F371" s="244"/>
       <c r="G371" s="9" t="s">
         <v>20</v>
       </c>
@@ -17332,16 +17327,16 @@
     </row>
     <row r="372" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B372" s="35" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C372" s="122" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="D372" s="166"/>
       <c r="E372" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="F372" s="245"/>
+      <c r="F372" s="244"/>
       <c r="G372" s="9" t="s">
         <v>20</v>
       </c>
@@ -17363,16 +17358,16 @@
     </row>
     <row r="373" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B373" s="35" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C373" s="122" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="D373" s="166"/>
       <c r="E373" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="F373" s="245"/>
+      <c r="F373" s="244"/>
       <c r="G373" s="9" t="s">
         <v>20</v>
       </c>
@@ -17394,16 +17389,16 @@
     </row>
     <row r="374" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B374" s="35" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C374" s="122" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="D374" s="166"/>
       <c r="E374" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="F374" s="245"/>
+      <c r="F374" s="244"/>
       <c r="G374" s="9" t="s">
         <v>20</v>
       </c>
@@ -17425,10 +17420,10 @@
     </row>
     <row r="375" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B375" s="34" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C375" s="118" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="D375" s="160"/>
       <c r="E375" s="193" t="s">
@@ -17444,10 +17439,10 @@
     </row>
     <row r="376" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B376" s="27" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C376" s="109" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="D376" s="154"/>
       <c r="E376" s="183"/>
@@ -17464,7 +17459,7 @@
         <v>8</v>
       </c>
       <c r="C377" s="228" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D377" s="229"/>
       <c r="E377" s="195"/>
@@ -17481,7 +17476,7 @@
         <v>80</v>
       </c>
       <c r="C378" s="109" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="D378" s="154"/>
       <c r="E378" s="183"/>
@@ -17495,10 +17490,10 @@
     </row>
     <row r="379" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B379" s="35" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C379" s="122" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D379" s="166"/>
       <c r="E379" s="123" t="s">
@@ -17526,10 +17521,10 @@
     </row>
     <row r="380" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B380" s="35" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C380" s="122" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D380" s="166"/>
       <c r="E380" s="123" t="s">
@@ -17557,10 +17552,10 @@
     </row>
     <row r="381" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B381" s="35" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C381" s="122" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="D381" s="166"/>
       <c r="E381" s="123" t="s">
@@ -17588,10 +17583,10 @@
     </row>
     <row r="382" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B382" s="35" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C382" s="122" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="D382" s="166"/>
       <c r="E382" s="123" t="s">
@@ -17619,10 +17614,10 @@
     </row>
     <row r="383" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B383" s="35" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C383" s="122" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="D383" s="166"/>
       <c r="E383" s="123" t="s">
@@ -17650,10 +17645,10 @@
     </row>
     <row r="384" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B384" s="35" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C384" s="122" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="D384" s="166"/>
       <c r="E384" s="123" t="s">
@@ -17681,10 +17676,10 @@
     </row>
     <row r="385" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B385" s="35" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C385" s="122" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D385" s="166"/>
       <c r="E385" s="123" t="s">
@@ -17712,12 +17707,12 @@
     </row>
     <row r="386" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B386" s="35" t="s">
-        <v>730</v>
-      </c>
-      <c r="C386" s="241" t="s">
         <v>731</v>
       </c>
-      <c r="D386" s="242"/>
+      <c r="C386" s="240" t="s">
+        <v>732</v>
+      </c>
+      <c r="D386" s="241"/>
       <c r="E386" s="123" t="s">
         <v>33</v>
       </c>
@@ -17731,10 +17726,10 @@
     </row>
     <row r="387" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B387" s="27" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C387" s="109" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="D387" s="154"/>
       <c r="E387" s="183"/>
@@ -17751,24 +17746,24 @@
         <v>9</v>
       </c>
       <c r="C388" s="231" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="D388" s="232"/>
       <c r="E388" s="196"/>
-      <c r="F388" s="247"/>
-      <c r="G388" s="248"/>
-      <c r="H388" s="249"/>
-      <c r="I388" s="248"/>
-      <c r="J388" s="248"/>
-      <c r="K388" s="248"/>
-      <c r="L388" s="250"/>
+      <c r="F388" s="246"/>
+      <c r="G388" s="247"/>
+      <c r="H388" s="248"/>
+      <c r="I388" s="247"/>
+      <c r="J388" s="247"/>
+      <c r="K388" s="247"/>
+      <c r="L388" s="249"/>
     </row>
     <row r="389" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B389" s="145">
         <v>91</v>
       </c>
       <c r="C389" s="147" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="D389" s="167"/>
       <c r="E389" s="123" t="s">
@@ -17787,7 +17782,7 @@
         <v>92</v>
       </c>
       <c r="C390" s="147" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="D390" s="167"/>
       <c r="E390" s="123" t="s">
@@ -17806,7 +17801,7 @@
         <v>93</v>
       </c>
       <c r="C391" s="147" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="D391" s="167"/>
       <c r="E391" s="123" t="s">
@@ -17825,7 +17820,7 @@
         <v>94</v>
       </c>
       <c r="C392" s="147" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="D392" s="167"/>
       <c r="E392" s="123" t="s">
@@ -17844,7 +17839,7 @@
         <v>95</v>
       </c>
       <c r="C393" s="147" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="D393" s="167"/>
       <c r="E393" s="123" t="s">
@@ -17863,7 +17858,7 @@
         <v>96</v>
       </c>
       <c r="C394" s="148" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="D394" s="168"/>
       <c r="E394" s="197" t="s">
@@ -17879,10 +17874,10 @@
     </row>
     <row r="395" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B395" s="146" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C395" s="148" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="D395" s="168"/>
       <c r="E395" s="197" t="s">
@@ -17898,10 +17893,10 @@
     </row>
     <row r="396" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B396" s="146" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C396" s="148" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="D396" s="168"/>
       <c r="E396" s="197"/>
@@ -17915,35 +17910,26 @@
     </row>
     <row r="401" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C401" s="2" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="402" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C402" s="2" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="403" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C403" s="2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="404" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C404" s="2" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C12"/>
@@ -17954,90 +17940,121 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:L13"/>
   </mergeCells>
-  <conditionalFormatting sqref="A4:A12 O3:XFD12 E8 A3:B3 A2 B22 A19:A25 D9:E12 A1:E1 D3:E7 A13:E18 B20:E20 M3:M12 M1:XFD2 B24:B25 A26:E27 A28:C32 D28:D31 E28:E32 A178:A206 B178:E178 M13:XFD1048576 A33:E177 D179:E206 A207:E1048576">
-    <cfRule type="cellIs" dxfId="39" priority="18" operator="equal">
-      <formula>"LEV"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="19" operator="equal">
-      <formula>"ENTR"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="20" operator="equal">
+  <conditionalFormatting sqref="A1:E1 M1:XFD2 A2 A3:B3 D3:E7 M3:M12 O3:XFD12 A4:A12 E8 D9:E12 A13:E18 M13:XFD1048576 A19:A25 B24:B25 A26:E27 D28:E31 A28:C32 A33:E177 B178:E178 A178:A206 D179:E206 A207:E1048576">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>"LAND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
       <formula>"EL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
       <formula>"VENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
       <formula>"VVS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
       <formula>"KON"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
       <formula>"ARK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21 B19:E19 C21:E22 B23:E23">
-    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
+  <conditionalFormatting sqref="A1:E1 M1:XFD2 A2 A3:B3 D3:E7 M3:M12 O3:XFD12 A4:A12 E8 D9:E12 A13:E18 M13:XFD1048576 A19:A25 B20:E20 B22 B24:B25 A26:E27 D28:E31 A28:C32 A33:E177 B178:E178 A178:A206 D179:E206 A207:E1048576">
+    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
       <formula>"LEV"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+      <formula>"ENTR"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B179:C206">
+    <cfRule type="cellIs" dxfId="22" priority="8" operator="lessThan">
+      <formula>1000</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:E19 B21 C21:E22 B23:E23">
+    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+      <formula>"LEV"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
       <formula>"ENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="12" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:E20 B21:B22 C21:E22 B23:E23">
+    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
       <formula>"LAND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
       <formula>"EL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
       <formula>"VENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
       <formula>"VVS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
       <formula>"KON"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
       <formula>"ARK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E25">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>"ENTR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
       <formula>"LAND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"EL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>"VENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
       <formula>"VVS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
       <formula>"KON"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
       <formula>"ARK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B179:C205">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="lessThan">
-      <formula>1000</formula>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+      <formula>"ENTR"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B206:C206">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="lessThan">
-      <formula>1000</formula>
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+      <formula>"LAND"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"EL"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>"VENT"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>"VVS"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+      <formula>"KON"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>"ARK"</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -18056,72 +18073,221 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="177" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="177" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="176" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B1" s="179" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C1" s="176" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="240" t="s">
-        <v>752</v>
-      </c>
-      <c r="B2" s="251">
+      <c r="A2" s="250" t="s">
+        <v>753</v>
+      </c>
+      <c r="B2" s="288">
         <v>44805</v>
       </c>
-      <c r="C2" s="240" t="s">
-        <v>753</v>
+      <c r="C2" s="250" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="240"/>
-      <c r="B3" s="251"/>
-      <c r="C3" s="240"/>
+      <c r="A3" s="250" t="s">
+        <v>755</v>
+      </c>
+      <c r="B3" s="288">
+        <v>45077</v>
+      </c>
+      <c r="C3" s="250" t="s">
+        <v>756</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="240"/>
-      <c r="B4" s="251"/>
-      <c r="C4" s="176"/>
+      <c r="A4" s="250" t="s">
+        <v>755</v>
+      </c>
+      <c r="B4" s="288">
+        <v>45089</v>
+      </c>
+      <c r="C4" s="250" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="240"/>
-      <c r="B5" s="251"/>
-      <c r="C5" s="178"/>
+      <c r="A5" s="250"/>
+      <c r="B5" s="288"/>
+      <c r="C5" s="250"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="240"/>
-      <c r="B6" s="251"/>
+      <c r="A6" s="250"/>
+      <c r="B6" s="288"/>
       <c r="C6" s="178"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="289"/>
       <c r="C7" s="178"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" s="289"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" s="289"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="289"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="289"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="289"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="289"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" s="289"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" s="289"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" s="289"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="289"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="289"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="289"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="289"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="289"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="289"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="289"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B24" s="289"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B25" s="289"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B26" s="289"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B27" s="289"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B28" s="289"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="289"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="289"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="289"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="289"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="289"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="289"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="289"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="289"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37" s="289"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38" s="289"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39" s="289"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40" s="289"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41" s="289"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42" s="289"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43" s="289"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44" s="289"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45" s="289"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46" s="289"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47" s="289"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48" s="289"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="289"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="289"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="289"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52" s="289"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100309FAFF55864F54C915D256FC93189CF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe1e7545a2d0d55fa1e8750be1390eca">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45a28cd4-7f0b-475c-a950-133468d4a055" xmlns:ns3="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d2010749b15634dfb9f9de390013312" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100309FAFF55864F54C915D256FC93189CF" ma:contentTypeVersion="14" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="cbbf6378af1006e2ffc6e4d2630b06d6">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45a28cd4-7f0b-475c-a950-133468d4a055" xmlns:ns3="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23be985134f45a9aa833b6b68d76feb5" ns2:_="" ns3:_="">
     <xsd:import namespace="45a28cd4-7f0b-475c-a950-133468d4a055"/>
     <xsd:import namespace="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a"/>
     <xsd:element name="properties">
@@ -18153,7 +18319,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45a28cd4-7f0b-475c-a950-133468d4a055" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -18172,7 +18338,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Delt med detaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -18243,7 +18409,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="83751008-6ac1-4d24-8ab5-3ca55cf7ecfc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Billedmærker" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="83751008-6ac1-4d24-8ab5-3ca55cf7ecfc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -18260,8 +18426,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Indholdstype"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -18351,6 +18517,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a">
@@ -18361,35 +18536,19 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CC5A7F9-64C5-4511-A09E-1883F1A1D424}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DC8CFDF-CB9C-4BB4-8C78-5F77423E8F2A}">
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5BEB0DA-93A2-4295-B234-19EEA9E4D26B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="45a28cd4-7f0b-475c-a950-133468d4a055"/>
-    <ds:schemaRef ds:uri="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B699584-3BAF-4E02-9B52-D1E34ABD5E73}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -18398,12 +18557,4 @@
     <ds:schemaRef ds:uri="45a28cd4-7f0b-475c-a950-133468d4a055"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5BEB0DA-93A2-4295-B234-19EEA9E4D26B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/dk/BIMTypeCode - BDA - 2022DK.xlsx
+++ b/dk/BIMTypeCode - BDA - 2022DK.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26605"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{99D568BF-04EF-477B-8470-5AB9493C5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{99D568BF-04EF-477B-8470-5AB9493C5B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE4FF75C-6435-4ACE-8DA7-99C00AE62E64}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" tabRatio="500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2476" uniqueCount="758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2477" uniqueCount="758">
   <si>
     <t xml:space="preserve">BIMTypeCode Detaljering og Ansvar (BDA) skema - af BIM7AA
 </t>
@@ -2384,9 +2384,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4064,6 +4064,77 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -4086,12 +4157,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4112,221 +4177,204 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="250">
-    <cellStyle name="Besøgt link" xfId="166" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="231" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="237" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="235" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="245" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="247" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="233" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="239" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="229" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="243" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="241" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Besøgt link" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="243" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="134" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="222" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="192" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="241" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="118" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="88" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="158" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="142" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="90" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="154" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="120" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="130" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="122" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="231" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="172" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="108" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="102" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="96" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="208" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="148" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="144" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="194" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="106" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="180" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="98" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="168" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="136" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="68" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="196" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="116" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="164" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="156" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="138" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="237" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="229" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="198" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="80" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="66" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="86" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="176" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="72" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="178" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="76" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="174" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="186" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="82" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="235" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="214" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="74" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="114" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="170" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="216" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="78" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="132" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="150" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="202" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="160" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="239" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="226" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="110" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="200" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="233" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="212" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="204" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="126" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="100" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="182" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="220" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="104" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="245" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="218" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="162" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="188" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="84" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="146" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="206" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="124" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="190" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="70" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="184" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="224" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="112" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="128" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="210" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="247" builtinId="9" hidden="1"/>
-    <cellStyle name="Besøgt link" xfId="92" builtinId="9" hidden="1"/>
-    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="219" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="223" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="236" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Besøgt link" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="234" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="238" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="230" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="246" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="244" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="105" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="115" builtinId="8" hidden="1"/>
@@ -4334,7 +4382,6 @@
     <cellStyle name="Link" xfId="242" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="77" builtinId="8" hidden="1"/>
@@ -4342,7 +4389,6 @@
     <cellStyle name="Link" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="232" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="207" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="27" builtinId="8" hidden="1"/>
@@ -4350,303 +4396,41 @@
     <cellStyle name="Link" xfId="127" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="99" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Link" xfId="228" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="131" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="193" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="183" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="85" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="161" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="107" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="195" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="111" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="211" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="93" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="191" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="181" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="65" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="139" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="169" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="234" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="73" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="101" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="125" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="213" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="187" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="155" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="141" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="159" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="95" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="137" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="69" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="225" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="209" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="129" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="189" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="217" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="221" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="199" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="89" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="135" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="121" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="201" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="75" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="177" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="83" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="81" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="244" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="205" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="149" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="87" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="91" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="238" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="230" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="153" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="157" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="246" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Link" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="236" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Link" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
     <cellStyle name="Normal 3" xfId="248" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
     <cellStyle name="Normal 4" xfId="249" xr:uid="{332381A9-585B-4BE2-A0BC-1EEDBEC86EDD}"/>
   </cellStyles>
   <dxfs count="47">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -5055,6 +4839,13 @@
     </dxf>
     <dxf>
       <border outline="0">
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <top style="medium">
           <color rgb="FF000000"/>
         </top>
@@ -5088,13 +4879,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -5111,6 +4895,222 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -7041,20 +7041,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95D697C7-52EB-4EDC-A439-4F093EDEEEF5}" name="Tabel13" displayName="Tabel13" ref="B16:L396" totalsRowShown="0" headerRowDxfId="45" dataDxfId="43" headerRowBorderDxfId="44" tableBorderDxfId="42">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{95D697C7-52EB-4EDC-A439-4F093EDEEEF5}" name="Tabel13" displayName="Tabel13" ref="B16:L396" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13" headerRowBorderDxfId="11" tableBorderDxfId="12">
   <autoFilter ref="B16:L396" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{26C41921-062F-4245-8FC2-8664450CCE41}" name="BIMTypeCode" dataDxfId="41"/>
-    <tableColumn id="2" xr3:uid="{356A2225-1AF5-430D-8CA1-5F27DBCDA05D}" name="BIMTypeCode-Description" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{3906863F-B66C-445C-854A-2502D2998051}" name="Kolonne1" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{B742BCAB-7A93-43DF-8C18-9CD342A25C34}" name="Ansvar" dataDxfId="38"/>
-    <tableColumn id="6" xr3:uid="{FB64B988-3B90-4319-9B69-03C769A6D8BB}" name="Disp. forslag" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{62238EBD-837B-4BF8-84A9-5ED6FA508287}" name="Projektforslag" dataDxfId="36"/>
-    <tableColumn id="8" xr3:uid="{BB6A3D7F-6E2F-4979-BB3E-034AF1F3C8E4}" name="Myndighedsprojekt" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{93C15FF5-FF5B-45A3-B308-35E8C6C6C120}" name="Udbudsprojekt2" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{850C70F9-8725-4A4F-AC9F-866E50619694}" name="Udførelsesprojekt" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{98A61EA5-946E-40E8-BFC9-1AF0C4A7750B}" name="Udførelse" dataDxfId="32"/>
-    <tableColumn id="11" xr3:uid="{B2DF865D-C6AD-4D93-927C-19398DA8B9B6}" name="Aflevering" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{26C41921-062F-4245-8FC2-8664450CCE41}" name="BIMTypeCode" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{356A2225-1AF5-430D-8CA1-5F27DBCDA05D}" name="BIMTypeCode-Description" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{3906863F-B66C-445C-854A-2502D2998051}" name="Kolonne1" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{B742BCAB-7A93-43DF-8C18-9CD342A25C34}" name="Ansvar" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{FB64B988-3B90-4319-9B69-03C769A6D8BB}" name="Disp. forslag" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{62238EBD-837B-4BF8-84A9-5ED6FA508287}" name="Projektforslag" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{BB6A3D7F-6E2F-4979-BB3E-034AF1F3C8E4}" name="Myndighedsprojekt" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{93C15FF5-FF5B-45A3-B308-35E8C6C6C120}" name="Udbudsprojekt2" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{850C70F9-8725-4A4F-AC9F-866E50619694}" name="Udførelsesprojekt" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{98A61EA5-946E-40E8-BFC9-1AF0C4A7750B}" name="Udførelse" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{B2DF865D-C6AD-4D93-927C-19398DA8B9B6}" name="Aflevering" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7388,7 +7388,7 @@
       <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="94" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -7407,10 +7407,10 @@
   <dimension ref="A1:W404"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="H53" sqref="H53"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="1.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.625" style="2" bestFit="1" customWidth="1"/>
@@ -7424,22 +7424,22 @@
     <col min="13" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="267" t="s">
+    <row r="1" spans="1:12" ht="29.25" customHeight="1">
+      <c r="B1" s="253" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="268"/>
-      <c r="D1" s="268"/>
-      <c r="E1" s="268"/>
-      <c r="F1" s="268"/>
-      <c r="G1" s="268"/>
-      <c r="H1" s="268"/>
-      <c r="I1" s="268"/>
-      <c r="J1" s="268"/>
-      <c r="K1" s="268"/>
-      <c r="L1" s="268"/>
-    </row>
-    <row r="2" spans="1:12" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+      <c r="I1" s="254"/>
+      <c r="J1" s="254"/>
+      <c r="K1" s="254"/>
+      <c r="L1" s="254"/>
+    </row>
+    <row r="2" spans="1:12" s="4" customFormat="1" ht="36.75" customHeight="1">
       <c r="A2" s="95"/>
       <c r="B2" s="104" t="s">
         <v>1</v>
@@ -7463,260 +7463,260 @@
         <v>6</v>
       </c>
       <c r="I2" s="237"/>
-      <c r="J2" s="269" t="s">
+      <c r="J2" s="255" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="270"/>
+      <c r="K2" s="256"/>
       <c r="L2" s="149" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1">
       <c r="A3" s="96"/>
-      <c r="B3" s="271" t="s">
+      <c r="B3" s="257" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="272"/>
+      <c r="C3" s="258"/>
       <c r="D3" s="101" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="276" t="s">
+      <c r="F3" s="262" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="277"/>
-      <c r="H3" s="282" t="s">
+      <c r="G3" s="263"/>
+      <c r="H3" s="268" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="283"/>
-      <c r="J3" s="283"/>
-      <c r="K3" s="284"/>
-      <c r="L3" s="285"/>
-    </row>
-    <row r="4" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="269"/>
+      <c r="J3" s="269"/>
+      <c r="K3" s="270"/>
+      <c r="L3" s="271"/>
+    </row>
+    <row r="4" spans="1:12" ht="15" customHeight="1">
       <c r="A4" s="96"/>
-      <c r="B4" s="271"/>
-      <c r="C4" s="273"/>
+      <c r="B4" s="257"/>
+      <c r="C4" s="259"/>
       <c r="D4" s="102" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="198" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="278"/>
-      <c r="G4" s="279"/>
+      <c r="F4" s="264"/>
+      <c r="G4" s="265"/>
       <c r="H4" s="97" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="233"/>
-      <c r="J4" s="258" t="s">
+      <c r="J4" s="274" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="259"/>
-      <c r="L4" s="286"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K4" s="275"/>
+      <c r="L4" s="272"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1">
       <c r="A5" s="96"/>
-      <c r="B5" s="271"/>
-      <c r="C5" s="273"/>
+      <c r="B5" s="257"/>
+      <c r="C5" s="259"/>
       <c r="D5" s="102" t="s">
         <v>18</v>
       </c>
       <c r="E5" s="199" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="278"/>
-      <c r="G5" s="279"/>
+      <c r="F5" s="264"/>
+      <c r="G5" s="265"/>
       <c r="H5" s="97" t="s">
         <v>20</v>
       </c>
       <c r="I5" s="233"/>
-      <c r="J5" s="258" t="s">
+      <c r="J5" s="274" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="259"/>
-      <c r="L5" s="286"/>
-    </row>
-    <row r="6" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K5" s="275"/>
+      <c r="L5" s="272"/>
+    </row>
+    <row r="6" spans="1:12" ht="15" customHeight="1">
       <c r="A6" s="96"/>
-      <c r="B6" s="271"/>
-      <c r="C6" s="273"/>
+      <c r="B6" s="257"/>
+      <c r="C6" s="259"/>
       <c r="D6" s="102" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="200" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="278"/>
-      <c r="G6" s="279"/>
+      <c r="F6" s="264"/>
+      <c r="G6" s="265"/>
       <c r="H6" s="97" t="s">
         <v>24</v>
       </c>
       <c r="I6" s="233"/>
-      <c r="J6" s="258" t="s">
+      <c r="J6" s="274" t="s">
         <v>25</v>
       </c>
-      <c r="K6" s="259"/>
-      <c r="L6" s="286"/>
-    </row>
-    <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K6" s="275"/>
+      <c r="L6" s="272"/>
+    </row>
+    <row r="7" spans="1:12" ht="15" customHeight="1">
       <c r="A7" s="96"/>
-      <c r="B7" s="271"/>
-      <c r="C7" s="273"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="259"/>
       <c r="D7" s="102" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="201" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="278"/>
-      <c r="G7" s="279"/>
+      <c r="F7" s="264"/>
+      <c r="G7" s="265"/>
       <c r="H7" s="97" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="233"/>
-      <c r="J7" s="258" t="s">
+      <c r="J7" s="274" t="s">
         <v>29</v>
       </c>
-      <c r="K7" s="259"/>
-      <c r="L7" s="286"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K7" s="275"/>
+      <c r="L7" s="272"/>
+    </row>
+    <row r="8" spans="1:12" ht="15" customHeight="1">
       <c r="A8" s="96"/>
-      <c r="B8" s="271"/>
-      <c r="C8" s="273"/>
+      <c r="B8" s="257"/>
+      <c r="C8" s="259"/>
       <c r="D8" s="102" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="202" t="s">
         <v>31</v>
       </c>
-      <c r="F8" s="278"/>
-      <c r="G8" s="279"/>
+      <c r="F8" s="264"/>
+      <c r="G8" s="265"/>
       <c r="H8" s="97"/>
       <c r="I8" s="233"/>
-      <c r="J8" s="258"/>
-      <c r="K8" s="259"/>
-      <c r="L8" s="286"/>
-    </row>
-    <row r="9" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J8" s="274"/>
+      <c r="K8" s="275"/>
+      <c r="L8" s="272"/>
+    </row>
+    <row r="9" spans="1:12" ht="15" customHeight="1">
       <c r="A9" s="96"/>
-      <c r="B9" s="271"/>
-      <c r="C9" s="273"/>
+      <c r="B9" s="257"/>
+      <c r="C9" s="259"/>
       <c r="D9" s="102" t="s">
         <v>32</v>
       </c>
       <c r="E9" s="203" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="278"/>
-      <c r="G9" s="279"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="265"/>
       <c r="H9" s="98"/>
       <c r="I9" s="234"/>
-      <c r="J9" s="260"/>
-      <c r="K9" s="261"/>
-      <c r="L9" s="286"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J9" s="283"/>
+      <c r="K9" s="284"/>
+      <c r="L9" s="272"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="96"/>
-      <c r="B10" s="271"/>
-      <c r="C10" s="273"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="259"/>
       <c r="D10" s="102" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="204" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="278"/>
-      <c r="G10" s="279"/>
+      <c r="F10" s="264"/>
+      <c r="G10" s="265"/>
       <c r="H10" s="99"/>
       <c r="I10" s="235"/>
-      <c r="J10" s="262"/>
-      <c r="K10" s="263"/>
-      <c r="L10" s="286"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J10" s="285"/>
+      <c r="K10" s="286"/>
+      <c r="L10" s="272"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="96"/>
-      <c r="B11" s="271"/>
-      <c r="C11" s="273"/>
+      <c r="B11" s="257"/>
+      <c r="C11" s="259"/>
       <c r="D11" s="102" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="205" t="s">
         <v>37</v>
       </c>
-      <c r="F11" s="278"/>
-      <c r="G11" s="279"/>
+      <c r="F11" s="264"/>
+      <c r="G11" s="265"/>
       <c r="H11" s="98"/>
       <c r="I11" s="234"/>
-      <c r="J11" s="260"/>
-      <c r="K11" s="261"/>
-      <c r="L11" s="286"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J11" s="283"/>
+      <c r="K11" s="284"/>
+      <c r="L11" s="272"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="96"/>
-      <c r="B12" s="274"/>
-      <c r="C12" s="275"/>
+      <c r="B12" s="260"/>
+      <c r="C12" s="261"/>
       <c r="D12" s="103" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="F12" s="280"/>
-      <c r="G12" s="281"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="267"/>
       <c r="H12" s="100"/>
       <c r="I12" s="236"/>
-      <c r="J12" s="264"/>
-      <c r="K12" s="265"/>
-      <c r="L12" s="287"/>
-    </row>
-    <row r="13" spans="1:12" ht="10.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="266"/>
-      <c r="C13" s="266"/>
-      <c r="D13" s="266"/>
-      <c r="E13" s="266"/>
-      <c r="F13" s="266"/>
-      <c r="G13" s="266"/>
-      <c r="H13" s="266"/>
-      <c r="I13" s="266"/>
-      <c r="J13" s="266"/>
-      <c r="K13" s="266"/>
-      <c r="L13" s="266"/>
-    </row>
-    <row r="14" spans="1:12" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="251" t="s">
+      <c r="J12" s="287"/>
+      <c r="K12" s="288"/>
+      <c r="L12" s="273"/>
+    </row>
+    <row r="13" spans="1:12" ht="10.5" customHeight="1" thickBot="1">
+      <c r="B13" s="289"/>
+      <c r="C13" s="289"/>
+      <c r="D13" s="289"/>
+      <c r="E13" s="289"/>
+      <c r="F13" s="289"/>
+      <c r="G13" s="289"/>
+      <c r="H13" s="289"/>
+      <c r="I13" s="289"/>
+      <c r="J13" s="289"/>
+      <c r="K13" s="289"/>
+      <c r="L13" s="289"/>
+    </row>
+    <row r="14" spans="1:12" ht="18.75" customHeight="1" thickBot="1">
+      <c r="B14" s="276" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="252"/>
-      <c r="D14" s="252"/>
-      <c r="E14" s="253"/>
-      <c r="F14" s="254" t="s">
+      <c r="C14" s="277"/>
+      <c r="D14" s="277"/>
+      <c r="E14" s="278"/>
+      <c r="F14" s="279" t="s">
         <v>41</v>
       </c>
-      <c r="G14" s="255"/>
-      <c r="H14" s="255"/>
-      <c r="I14" s="255"/>
-      <c r="J14" s="255"/>
-      <c r="K14" s="255"/>
-      <c r="L14" s="256"/>
-    </row>
-    <row r="15" spans="1:12" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="257"/>
-      <c r="C15" s="257"/>
-      <c r="D15" s="257"/>
-      <c r="E15" s="257"/>
-      <c r="F15" s="257"/>
-      <c r="G15" s="257"/>
-      <c r="H15" s="257"/>
-      <c r="I15" s="257"/>
-      <c r="J15" s="257"/>
-      <c r="K15" s="257"/>
-      <c r="L15" s="257"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="G14" s="280"/>
+      <c r="H14" s="280"/>
+      <c r="I14" s="280"/>
+      <c r="J14" s="280"/>
+      <c r="K14" s="280"/>
+      <c r="L14" s="281"/>
+    </row>
+    <row r="15" spans="1:12" ht="9.75" customHeight="1" thickBot="1">
+      <c r="B15" s="282"/>
+      <c r="C15" s="282"/>
+      <c r="D15" s="282"/>
+      <c r="E15" s="282"/>
+      <c r="F15" s="282"/>
+      <c r="G15" s="282"/>
+      <c r="H15" s="282"/>
+      <c r="I15" s="282"/>
+      <c r="J15" s="282"/>
+      <c r="K15" s="282"/>
+      <c r="L15" s="282"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="B16" s="124" t="s">
         <v>42</v>
       </c>
@@ -7751,7 +7751,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:23">
       <c r="B17" s="206">
         <v>0</v>
       </c>
@@ -7768,7 +7768,7 @@
       <c r="K17" s="48"/>
       <c r="L17" s="49"/>
     </row>
-    <row r="18" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:23" ht="15" customHeight="1">
       <c r="B18" s="11" t="s">
         <v>53</v>
       </c>
@@ -7791,7 +7791,7 @@
       <c r="K18" s="133"/>
       <c r="L18" s="130"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:23">
       <c r="B19" s="11" t="s">
         <v>55</v>
       </c>
@@ -7802,7 +7802,9 @@
       <c r="E19" s="134" t="s">
         <v>19</v>
       </c>
-      <c r="F19" s="131"/>
+      <c r="F19" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="G19" s="13" t="s">
         <v>20</v>
       </c>
@@ -7812,7 +7814,7 @@
       <c r="K19" s="133"/>
       <c r="L19" s="130"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:23">
       <c r="B20" s="11" t="s">
         <v>57</v>
       </c>
@@ -7846,7 +7848,7 @@
       <c r="V20" s="243"/>
       <c r="W20" s="243"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:23">
       <c r="B21" s="11" t="s">
         <v>59</v>
       </c>
@@ -7880,7 +7882,7 @@
       <c r="V21" s="243"/>
       <c r="W21" s="243"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:23">
       <c r="B22" s="11" t="s">
         <v>61</v>
       </c>
@@ -7914,7 +7916,7 @@
       <c r="V22" s="243"/>
       <c r="W22" s="243"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:23">
       <c r="B23" s="11" t="s">
         <v>63</v>
       </c>
@@ -7948,7 +7950,7 @@
       <c r="V23" s="243"/>
       <c r="W23" s="243"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:23">
       <c r="B24" s="11" t="s">
         <v>65</v>
       </c>
@@ -7978,7 +7980,7 @@
       <c r="V24" s="243"/>
       <c r="W24" s="243"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:23">
       <c r="B25" s="11" t="s">
         <v>67</v>
       </c>
@@ -8006,7 +8008,7 @@
       <c r="V25" s="243"/>
       <c r="W25" s="243"/>
     </row>
-    <row r="26" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23">
       <c r="B26" s="209" t="s">
         <v>69</v>
       </c>
@@ -8034,7 +8036,7 @@
       <c r="V26" s="243"/>
       <c r="W26" s="243"/>
     </row>
-    <row r="27" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:23" ht="15.75" customHeight="1">
       <c r="B27" s="22">
         <v>10</v>
       </c>
@@ -8061,7 +8063,7 @@
       <c r="V27" s="243"/>
       <c r="W27" s="243"/>
     </row>
-    <row r="28" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:23" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
         <v>72</v>
       </c>
@@ -8091,7 +8093,7 @@
       <c r="V28" s="243"/>
       <c r="W28" s="243"/>
     </row>
-    <row r="29" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:23">
       <c r="B29" s="23" t="s">
         <v>74</v>
       </c>
@@ -8121,7 +8123,7 @@
       <c r="V29" s="243"/>
       <c r="W29" s="243"/>
     </row>
-    <row r="30" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:23" ht="16.5" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>76</v>
       </c>
@@ -8163,7 +8165,7 @@
       <c r="V30" s="243"/>
       <c r="W30" s="243"/>
     </row>
-    <row r="31" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:23" ht="16.5" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>78</v>
       </c>
@@ -8205,7 +8207,7 @@
       <c r="V31" s="243"/>
       <c r="W31" s="243"/>
     </row>
-    <row r="32" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:23" ht="16.5" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>80</v>
       </c>
@@ -8233,7 +8235,7 @@
       <c r="V32" s="243"/>
       <c r="W32" s="243"/>
     </row>
-    <row r="33" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:23" ht="15.75" customHeight="1">
       <c r="B33" s="22">
         <v>12</v>
       </c>
@@ -8261,7 +8263,7 @@
       <c r="V33" s="243"/>
       <c r="W33" s="243"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:23">
       <c r="B34" s="23" t="s">
         <v>83</v>
       </c>
@@ -8303,7 +8305,7 @@
       <c r="V34" s="243"/>
       <c r="W34" s="243"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:23">
       <c r="B35" s="23" t="s">
         <v>85</v>
       </c>
@@ -8345,7 +8347,7 @@
       <c r="V35" s="243"/>
       <c r="W35" s="243"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:23">
       <c r="B36" s="23" t="s">
         <v>87</v>
       </c>
@@ -8387,7 +8389,7 @@
       <c r="V36" s="243"/>
       <c r="W36" s="243"/>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:23">
       <c r="B37" s="23" t="s">
         <v>89</v>
       </c>
@@ -8429,7 +8431,7 @@
       <c r="V37" s="243"/>
       <c r="W37" s="243"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:23">
       <c r="B38" s="23" t="s">
         <v>91</v>
       </c>
@@ -8471,7 +8473,7 @@
       <c r="V38" s="243"/>
       <c r="W38" s="243"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:23">
       <c r="B39" s="23" t="s">
         <v>93</v>
       </c>
@@ -8513,7 +8515,7 @@
       <c r="V39" s="243"/>
       <c r="W39" s="243"/>
     </row>
-    <row r="40" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" ht="16.5" customHeight="1">
       <c r="B40" s="23" t="s">
         <v>95</v>
       </c>
@@ -8541,7 +8543,7 @@
       <c r="V40" s="243"/>
       <c r="W40" s="243"/>
     </row>
-    <row r="41" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" ht="15.75" customHeight="1">
       <c r="B41" s="239" t="s">
         <v>97</v>
       </c>
@@ -8569,7 +8571,7 @@
       <c r="V41" s="243"/>
       <c r="W41" s="243"/>
     </row>
-    <row r="42" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:23" ht="15.75" customHeight="1">
       <c r="B42" s="23" t="s">
         <v>99</v>
       </c>
@@ -8611,7 +8613,7 @@
       <c r="V42" s="243"/>
       <c r="W42" s="243"/>
     </row>
-    <row r="43" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:23" ht="16.5" customHeight="1">
       <c r="B43" s="23" t="s">
         <v>100</v>
       </c>
@@ -8639,7 +8641,7 @@
       <c r="V43" s="243"/>
       <c r="W43" s="243"/>
     </row>
-    <row r="44" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:23" ht="15.75" customHeight="1">
       <c r="B44" s="239" t="s">
         <v>102</v>
       </c>
@@ -8667,7 +8669,7 @@
       <c r="V44" s="243"/>
       <c r="W44" s="243"/>
     </row>
-    <row r="45" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:23" ht="16.5" customHeight="1">
       <c r="B45" s="23" t="s">
         <v>104</v>
       </c>
@@ -8709,7 +8711,7 @@
       <c r="V45" s="243"/>
       <c r="W45" s="243"/>
     </row>
-    <row r="46" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:23" ht="16.5" customHeight="1">
       <c r="B46" s="23" t="s">
         <v>106</v>
       </c>
@@ -8740,7 +8742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="2:23" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:23" ht="16.5" customHeight="1">
       <c r="B47" s="212">
         <v>2</v>
       </c>
@@ -8757,7 +8759,7 @@
       <c r="K47" s="52"/>
       <c r="L47" s="53"/>
     </row>
-    <row r="48" spans="2:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:23" ht="15.75" customHeight="1">
       <c r="B48" s="22">
         <v>20</v>
       </c>
@@ -8774,7 +8776,7 @@
       <c r="K48" s="66"/>
       <c r="L48" s="71"/>
     </row>
-    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:12">
       <c r="B49" s="23" t="s">
         <v>110</v>
       </c>
@@ -8805,7 +8807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:12">
       <c r="B50" s="23" t="s">
         <v>112</v>
       </c>
@@ -8836,7 +8838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:12">
       <c r="B51" s="23" t="s">
         <v>114</v>
       </c>
@@ -8867,7 +8869,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:12">
       <c r="B52" s="23" t="s">
         <v>116</v>
       </c>
@@ -8898,7 +8900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:12">
       <c r="B53" s="23" t="s">
         <v>118</v>
       </c>
@@ -8929,7 +8931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:12">
       <c r="B54" s="23" t="s">
         <v>120</v>
       </c>
@@ -8960,7 +8962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="55" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:12" ht="16.5" customHeight="1">
       <c r="B55" s="23" t="s">
         <v>122</v>
       </c>
@@ -8977,7 +8979,7 @@
       <c r="K55" s="6"/>
       <c r="L55" s="108"/>
     </row>
-    <row r="56" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:12" ht="15.75" customHeight="1">
       <c r="B56" s="24">
         <v>21</v>
       </c>
@@ -8994,7 +8996,7 @@
       <c r="K56" s="66"/>
       <c r="L56" s="71"/>
     </row>
-    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:12">
       <c r="B57" s="25" t="s">
         <v>125</v>
       </c>
@@ -9027,7 +9029,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:12">
       <c r="B58" s="25" t="s">
         <v>127</v>
       </c>
@@ -9060,7 +9062,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:12">
       <c r="B59" s="25" t="s">
         <v>129</v>
       </c>
@@ -9093,7 +9095,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:12">
       <c r="B60" s="25" t="s">
         <v>131</v>
       </c>
@@ -9126,7 +9128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:12">
       <c r="B61" s="25" t="s">
         <v>133</v>
       </c>
@@ -9159,7 +9161,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:12">
       <c r="B62" s="25" t="s">
         <v>135</v>
       </c>
@@ -9192,7 +9194,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:12">
       <c r="B63" s="25" t="s">
         <v>137</v>
       </c>
@@ -9225,7 +9227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:12">
       <c r="B64" s="25" t="s">
         <v>139</v>
       </c>
@@ -9256,7 +9258,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:12" ht="16.5" customHeight="1">
       <c r="B65" s="25" t="s">
         <v>141</v>
       </c>
@@ -9273,7 +9275,7 @@
       <c r="K65" s="6"/>
       <c r="L65" s="108"/>
     </row>
-    <row r="66" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:12" ht="15.75" customHeight="1">
       <c r="B66" s="24">
         <v>22</v>
       </c>
@@ -9290,7 +9292,7 @@
       <c r="K66" s="66"/>
       <c r="L66" s="71"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:12">
       <c r="B67" s="25" t="s">
         <v>144</v>
       </c>
@@ -9323,7 +9325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:12">
       <c r="B68" s="25" t="s">
         <v>146</v>
       </c>
@@ -9356,7 +9358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:12">
       <c r="B69" s="25" t="s">
         <v>148</v>
       </c>
@@ -9389,7 +9391,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:12">
       <c r="B70" s="25" t="s">
         <v>150</v>
       </c>
@@ -9422,7 +9424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:12">
       <c r="B71" s="25" t="s">
         <v>152</v>
       </c>
@@ -9455,7 +9457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:12">
       <c r="B72" s="25" t="s">
         <v>154</v>
       </c>
@@ -9488,7 +9490,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:12" ht="16.5" customHeight="1">
       <c r="B73" s="25" t="s">
         <v>156</v>
       </c>
@@ -9505,7 +9507,7 @@
       <c r="K73" s="6"/>
       <c r="L73" s="108"/>
     </row>
-    <row r="74" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:12" ht="15.75" customHeight="1">
       <c r="B74" s="24">
         <v>23</v>
       </c>
@@ -9522,7 +9524,7 @@
       <c r="K74" s="66"/>
       <c r="L74" s="71"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:12">
       <c r="B75" s="25" t="s">
         <v>159</v>
       </c>
@@ -9555,7 +9557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:12">
       <c r="B76" s="25" t="s">
         <v>161</v>
       </c>
@@ -9588,7 +9590,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:12">
       <c r="B77" s="25" t="s">
         <v>163</v>
       </c>
@@ -9621,7 +9623,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:12">
       <c r="B78" s="25" t="s">
         <v>165</v>
       </c>
@@ -9654,7 +9656,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:12" ht="16.5" customHeight="1">
       <c r="B79" s="26" t="s">
         <v>167</v>
       </c>
@@ -9671,7 +9673,7 @@
       <c r="K79" s="6"/>
       <c r="L79" s="108"/>
     </row>
-    <row r="80" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:12" ht="15.75" customHeight="1">
       <c r="B80" s="27">
         <v>24</v>
       </c>
@@ -9688,7 +9690,7 @@
       <c r="K80" s="66"/>
       <c r="L80" s="71"/>
     </row>
-    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:12">
       <c r="B81" s="25" t="s">
         <v>170</v>
       </c>
@@ -9719,7 +9721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:12">
       <c r="B82" s="25" t="s">
         <v>172</v>
       </c>
@@ -9750,7 +9752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:12">
       <c r="B83" s="25" t="s">
         <v>174</v>
       </c>
@@ -9781,7 +9783,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:12">
       <c r="B84" s="25" t="s">
         <v>176</v>
       </c>
@@ -9812,7 +9814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:12">
       <c r="B85" s="25" t="s">
         <v>178</v>
       </c>
@@ -9843,7 +9845,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:12">
       <c r="B86" s="25" t="s">
         <v>180</v>
       </c>
@@ -9874,7 +9876,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:12">
       <c r="B87" s="25" t="s">
         <v>182</v>
       </c>
@@ -9905,7 +9907,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:12">
       <c r="B88" s="25" t="s">
         <v>184</v>
       </c>
@@ -9922,7 +9924,7 @@
       <c r="K88" s="6"/>
       <c r="L88" s="108"/>
     </row>
-    <row r="89" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:12" ht="15.75" customHeight="1">
       <c r="B89" s="24">
         <v>25</v>
       </c>
@@ -9939,7 +9941,7 @@
       <c r="K89" s="66"/>
       <c r="L89" s="71"/>
     </row>
-    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:12">
       <c r="B90" s="25" t="s">
         <v>187</v>
       </c>
@@ -9970,7 +9972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:12">
       <c r="B91" s="25" t="s">
         <v>189</v>
       </c>
@@ -10001,7 +10003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:12">
       <c r="B92" s="25" t="s">
         <v>191</v>
       </c>
@@ -10032,7 +10034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:12">
       <c r="B93" s="25" t="s">
         <v>193</v>
       </c>
@@ -10065,7 +10067,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:12">
       <c r="B94" s="25" t="s">
         <v>195</v>
       </c>
@@ -10098,7 +10100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:12">
       <c r="B95" s="25" t="s">
         <v>197</v>
       </c>
@@ -10131,7 +10133,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="96" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:12" ht="16.5" customHeight="1">
       <c r="B96" s="26" t="s">
         <v>199</v>
       </c>
@@ -10148,7 +10150,7 @@
       <c r="K96" s="6"/>
       <c r="L96" s="108"/>
     </row>
-    <row r="97" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:12" ht="15.75" customHeight="1">
       <c r="B97" s="24">
         <v>26</v>
       </c>
@@ -10165,7 +10167,7 @@
       <c r="K97" s="66"/>
       <c r="L97" s="71"/>
     </row>
-    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:12">
       <c r="B98" s="25" t="s">
         <v>202</v>
       </c>
@@ -10198,7 +10200,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:12">
       <c r="B99" s="25" t="s">
         <v>204</v>
       </c>
@@ -10231,7 +10233,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:12">
       <c r="B100" s="25" t="s">
         <v>206</v>
       </c>
@@ -10264,7 +10266,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:12" ht="16.5" customHeight="1">
       <c r="B101" s="25" t="s">
         <v>208</v>
       </c>
@@ -10281,7 +10283,7 @@
       <c r="K101" s="6"/>
       <c r="L101" s="108"/>
     </row>
-    <row r="102" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:12" ht="15.75" customHeight="1">
       <c r="B102" s="24">
         <v>27</v>
       </c>
@@ -10298,7 +10300,7 @@
       <c r="K102" s="66"/>
       <c r="L102" s="71"/>
     </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:12">
       <c r="B103" s="25" t="s">
         <v>211</v>
       </c>
@@ -10331,7 +10333,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:12">
       <c r="B104" s="25" t="s">
         <v>213</v>
       </c>
@@ -10364,7 +10366,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:12">
       <c r="B105" s="26" t="s">
         <v>215</v>
       </c>
@@ -10397,7 +10399,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:12">
       <c r="B106" s="25" t="s">
         <v>217</v>
       </c>
@@ -10430,7 +10432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:12">
       <c r="B107" s="25" t="s">
         <v>219</v>
       </c>
@@ -10461,7 +10463,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:12">
       <c r="B108" s="25" t="s">
         <v>221</v>
       </c>
@@ -10492,7 +10494,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:12" ht="16.5" customHeight="1">
       <c r="B109" s="25" t="s">
         <v>223</v>
       </c>
@@ -10509,7 +10511,7 @@
       <c r="K109" s="6"/>
       <c r="L109" s="108"/>
     </row>
-    <row r="110" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:12" ht="16.5" customHeight="1">
       <c r="B110" s="24" t="s">
         <v>225</v>
       </c>
@@ -10526,7 +10528,7 @@
       <c r="K110" s="66"/>
       <c r="L110" s="71"/>
     </row>
-    <row r="111" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:12" ht="16.5" customHeight="1">
       <c r="B111" s="215" t="s">
         <v>227</v>
       </c>
@@ -10543,7 +10545,7 @@
       <c r="K111" s="54"/>
       <c r="L111" s="55"/>
     </row>
-    <row r="112" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:12" ht="15.75" customHeight="1">
       <c r="B112" s="22" t="s">
         <v>229</v>
       </c>
@@ -10560,7 +10562,7 @@
       <c r="K112" s="66"/>
       <c r="L112" s="71"/>
     </row>
-    <row r="113" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:12" ht="16.5" customHeight="1">
       <c r="B113" s="25" t="s">
         <v>231</v>
       </c>
@@ -10591,7 +10593,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:12" ht="16.5" customHeight="1">
       <c r="B114" s="25" t="s">
         <v>233</v>
       </c>
@@ -10624,7 +10626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:12" ht="16.5" customHeight="1">
       <c r="B115" s="26" t="s">
         <v>235</v>
       </c>
@@ -10657,7 +10659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="116" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:12" ht="16.5" customHeight="1">
       <c r="B116" s="25" t="s">
         <v>237</v>
       </c>
@@ -10690,7 +10692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:12" ht="16.5" customHeight="1">
       <c r="B117" s="25" t="s">
         <v>239</v>
       </c>
@@ -10723,7 +10725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="118" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:12" ht="16.5" customHeight="1">
       <c r="B118" s="25" t="s">
         <v>241</v>
       </c>
@@ -10740,7 +10742,7 @@
       <c r="K118" s="6"/>
       <c r="L118" s="108"/>
     </row>
-    <row r="119" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:12" ht="15.75" customHeight="1">
       <c r="B119" s="24">
         <v>31</v>
       </c>
@@ -10757,7 +10759,7 @@
       <c r="K119" s="66"/>
       <c r="L119" s="71"/>
     </row>
-    <row r="120" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:12">
       <c r="B120" s="25" t="s">
         <v>244</v>
       </c>
@@ -10790,7 +10792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:12">
       <c r="B121" s="25" t="s">
         <v>246</v>
       </c>
@@ -10823,7 +10825,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="122" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:12">
       <c r="B122" s="25" t="s">
         <v>248</v>
       </c>
@@ -10856,7 +10858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="123" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:12">
       <c r="B123" s="25" t="s">
         <v>250</v>
       </c>
@@ -10889,7 +10891,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="124" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:12">
       <c r="B124" s="25" t="s">
         <v>252</v>
       </c>
@@ -10920,7 +10922,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:12">
       <c r="B125" s="25" t="s">
         <v>254</v>
       </c>
@@ -10953,7 +10955,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:12">
       <c r="B126" s="25" t="s">
         <v>256</v>
       </c>
@@ -10984,7 +10986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:12" ht="16.5" customHeight="1">
       <c r="B127" s="25" t="s">
         <v>258</v>
       </c>
@@ -11001,7 +11003,7 @@
       <c r="K127" s="6"/>
       <c r="L127" s="108"/>
     </row>
-    <row r="128" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:12" ht="15.75" customHeight="1">
       <c r="B128" s="24">
         <v>32</v>
       </c>
@@ -11018,7 +11020,7 @@
       <c r="K128" s="66"/>
       <c r="L128" s="71"/>
     </row>
-    <row r="129" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:12">
       <c r="B129" s="25" t="s">
         <v>261</v>
       </c>
@@ -11051,7 +11053,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:12">
       <c r="B130" s="25" t="s">
         <v>263</v>
       </c>
@@ -11084,7 +11086,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:12">
       <c r="B131" s="25" t="s">
         <v>265</v>
       </c>
@@ -11117,7 +11119,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:12">
       <c r="B132" s="25" t="s">
         <v>267</v>
       </c>
@@ -11150,7 +11152,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="133" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:12">
       <c r="B133" s="25" t="s">
         <v>269</v>
       </c>
@@ -11181,7 +11183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="134" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:12">
       <c r="B134" s="25" t="s">
         <v>271</v>
       </c>
@@ -11214,7 +11216,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="135" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:12">
       <c r="B135" s="25" t="s">
         <v>273</v>
       </c>
@@ -11247,7 +11249,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="136" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:12">
       <c r="B136" s="25" t="s">
         <v>275</v>
       </c>
@@ -11278,7 +11280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="137" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:12" ht="16.5" customHeight="1">
       <c r="B137" s="25" t="s">
         <v>277</v>
       </c>
@@ -11295,7 +11297,7 @@
       <c r="K137" s="6"/>
       <c r="L137" s="108"/>
     </row>
-    <row r="138" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:12" ht="15.75" customHeight="1">
       <c r="B138" s="22">
         <v>33</v>
       </c>
@@ -11312,7 +11314,7 @@
       <c r="K138" s="66"/>
       <c r="L138" s="71"/>
     </row>
-    <row r="139" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:12">
       <c r="B139" s="23" t="s">
         <v>280</v>
       </c>
@@ -11343,7 +11345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="140" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:12">
       <c r="B140" s="23" t="s">
         <v>282</v>
       </c>
@@ -11374,7 +11376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:12">
       <c r="B141" s="23" t="s">
         <v>284</v>
       </c>
@@ -11401,7 +11403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="142" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:12">
       <c r="B142" s="23" t="s">
         <v>286</v>
       </c>
@@ -11432,7 +11434,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="143" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:12">
       <c r="B143" s="23" t="s">
         <v>288</v>
       </c>
@@ -11459,7 +11461,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="144" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:12">
       <c r="B144" s="23" t="s">
         <v>290</v>
       </c>
@@ -11486,7 +11488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="145" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:12" ht="16.5" customHeight="1">
       <c r="B145" s="23" t="s">
         <v>292</v>
       </c>
@@ -11503,7 +11505,7 @@
       <c r="K145" s="6"/>
       <c r="L145" s="108"/>
     </row>
-    <row r="146" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:12" ht="15.75" customHeight="1">
       <c r="B146" s="22">
         <v>34</v>
       </c>
@@ -11520,7 +11522,7 @@
       <c r="K146" s="66"/>
       <c r="L146" s="71"/>
     </row>
-    <row r="147" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:12">
       <c r="B147" s="23" t="s">
         <v>295</v>
       </c>
@@ -11551,7 +11553,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="148" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:12" ht="16.5" customHeight="1">
       <c r="B148" s="23" t="s">
         <v>296</v>
       </c>
@@ -11568,7 +11570,7 @@
       <c r="K148" s="6"/>
       <c r="L148" s="108"/>
     </row>
-    <row r="149" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:12" ht="15.75" customHeight="1">
       <c r="B149" s="22">
         <v>35</v>
       </c>
@@ -11585,7 +11587,7 @@
       <c r="K149" s="66"/>
       <c r="L149" s="71"/>
     </row>
-    <row r="150" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:12">
       <c r="B150" s="23" t="s">
         <v>299</v>
       </c>
@@ -11616,7 +11618,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:12">
       <c r="B151" s="23" t="s">
         <v>301</v>
       </c>
@@ -11647,7 +11649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:12">
       <c r="B152" s="23" t="s">
         <v>303</v>
       </c>
@@ -11678,7 +11680,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="153" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:12">
       <c r="B153" s="23" t="s">
         <v>305</v>
       </c>
@@ -11709,7 +11711,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="154" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:12">
       <c r="B154" s="23" t="s">
         <v>307</v>
       </c>
@@ -11740,7 +11742,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="155" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:12">
       <c r="B155" s="23" t="s">
         <v>309</v>
       </c>
@@ -11771,7 +11773,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="156" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:12" ht="16.5" customHeight="1">
       <c r="B156" s="23" t="s">
         <v>311</v>
       </c>
@@ -11788,7 +11790,7 @@
       <c r="K156" s="6"/>
       <c r="L156" s="108"/>
     </row>
-    <row r="157" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:12" ht="15.75" customHeight="1">
       <c r="B157" s="22" t="s">
         <v>313</v>
       </c>
@@ -11805,7 +11807,7 @@
       <c r="K157" s="66"/>
       <c r="L157" s="71"/>
     </row>
-    <row r="158" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:12" ht="16.5" customHeight="1">
       <c r="B158" s="23" t="s">
         <v>315</v>
       </c>
@@ -11836,7 +11838,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:12" ht="16.5" customHeight="1">
       <c r="B159" s="23" t="s">
         <v>317</v>
       </c>
@@ -11853,7 +11855,7 @@
       <c r="K159" s="6"/>
       <c r="L159" s="108"/>
     </row>
-    <row r="160" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:12" ht="15.75" customHeight="1">
       <c r="B160" s="22" t="s">
         <v>319</v>
       </c>
@@ -11870,7 +11872,7 @@
       <c r="K160" s="66"/>
       <c r="L160" s="71"/>
     </row>
-    <row r="161" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:12">
       <c r="B161" s="23" t="s">
         <v>321</v>
       </c>
@@ -11901,7 +11903,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="162" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:12">
       <c r="B162" s="23" t="s">
         <v>323</v>
       </c>
@@ -11932,7 +11934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="163" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:12">
       <c r="B163" s="23" t="s">
         <v>325</v>
       </c>
@@ -11959,7 +11961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="164" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:12">
       <c r="B164" s="23" t="s">
         <v>327</v>
       </c>
@@ -11986,7 +11988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="165" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:12">
       <c r="B165" s="23" t="s">
         <v>329</v>
       </c>
@@ -12013,7 +12015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:12">
       <c r="B166" s="23" t="s">
         <v>331</v>
       </c>
@@ -12040,7 +12042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:12" ht="16.5" customHeight="1">
       <c r="B167" s="23" t="s">
         <v>333</v>
       </c>
@@ -12057,7 +12059,7 @@
       <c r="K167" s="6"/>
       <c r="L167" s="108"/>
     </row>
-    <row r="168" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:12" ht="15.75" customHeight="1">
       <c r="B168" s="22">
         <v>39</v>
       </c>
@@ -12074,7 +12076,7 @@
       <c r="K168" s="66"/>
       <c r="L168" s="71"/>
     </row>
-    <row r="169" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:12" ht="15.75" customHeight="1">
       <c r="B169" s="218">
         <v>4</v>
       </c>
@@ -12091,7 +12093,7 @@
       <c r="K169" s="56"/>
       <c r="L169" s="57"/>
     </row>
-    <row r="170" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:12" ht="15.75" customHeight="1">
       <c r="B170" s="22" t="s">
         <v>337</v>
       </c>
@@ -12108,7 +12110,7 @@
       <c r="K170" s="66"/>
       <c r="L170" s="71"/>
     </row>
-    <row r="171" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:12" ht="15.75" customHeight="1">
       <c r="B171" s="23" t="s">
         <v>339</v>
       </c>
@@ -12139,7 +12141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="172" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:12" ht="15.75" customHeight="1">
       <c r="B172" s="23" t="s">
         <v>341</v>
       </c>
@@ -12170,7 +12172,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="173" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:12" ht="15.75" customHeight="1">
       <c r="B173" s="23" t="s">
         <v>343</v>
       </c>
@@ -12201,7 +12203,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="174" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:12" ht="15.75" customHeight="1">
       <c r="B174" s="23" t="s">
         <v>345</v>
       </c>
@@ -12232,7 +12234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="175" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:12" ht="15.75" customHeight="1">
       <c r="B175" s="23" t="s">
         <v>347</v>
       </c>
@@ -12263,7 +12265,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="176" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:12" ht="15.75" customHeight="1">
       <c r="B176" s="23" t="s">
         <v>349</v>
       </c>
@@ -12294,7 +12296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" ht="15.75" customHeight="1">
       <c r="B177" s="23" t="s">
         <v>351</v>
       </c>
@@ -12325,7 +12327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" ht="15.75" customHeight="1">
       <c r="B178" s="23" t="s">
         <v>353</v>
       </c>
@@ -12342,7 +12344,7 @@
       <c r="K178" s="6"/>
       <c r="L178" s="108"/>
     </row>
-    <row r="179" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" ht="15.75" customHeight="1">
       <c r="A179" s="151"/>
       <c r="B179" s="169">
         <v>41</v>
@@ -12360,7 +12362,7 @@
       <c r="K179" s="66"/>
       <c r="L179" s="71"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12">
       <c r="A180" s="151"/>
       <c r="B180" s="170" t="s">
         <v>356</v>
@@ -12388,7 +12390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12">
       <c r="A181" s="151"/>
       <c r="B181" s="170" t="s">
         <v>358</v>
@@ -12416,7 +12418,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" ht="16.5" customHeight="1">
       <c r="A182" s="151"/>
       <c r="B182" s="170" t="s">
         <v>360</v>
@@ -12434,7 +12436,7 @@
       <c r="K182" s="6"/>
       <c r="L182" s="108"/>
     </row>
-    <row r="183" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" ht="15.75" customHeight="1">
       <c r="A183" s="151"/>
       <c r="B183" s="169">
         <v>42</v>
@@ -12452,7 +12454,7 @@
       <c r="K183" s="66"/>
       <c r="L183" s="71"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12">
       <c r="A184" s="151"/>
       <c r="B184" s="170" t="s">
         <v>363</v>
@@ -12480,7 +12482,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12">
       <c r="A185" s="151"/>
       <c r="B185" s="170" t="s">
         <v>364</v>
@@ -12508,7 +12510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" ht="16.5" customHeight="1">
       <c r="A186" s="151"/>
       <c r="B186" s="170" t="s">
         <v>365</v>
@@ -12526,7 +12528,7 @@
       <c r="K186" s="6"/>
       <c r="L186" s="108"/>
     </row>
-    <row r="187" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" ht="15.75" customHeight="1">
       <c r="A187" s="151"/>
       <c r="B187" s="169">
         <v>43</v>
@@ -12544,7 +12546,7 @@
       <c r="K187" s="66"/>
       <c r="L187" s="71"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12">
       <c r="A188" s="151"/>
       <c r="B188" s="170" t="s">
         <v>368</v>
@@ -12572,7 +12574,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12">
       <c r="A189" s="151"/>
       <c r="B189" s="170" t="s">
         <v>370</v>
@@ -12600,7 +12602,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" ht="16.5" customHeight="1">
       <c r="A190" s="151"/>
       <c r="B190" s="170" t="s">
         <v>371</v>
@@ -12618,7 +12620,7 @@
       <c r="K190" s="6"/>
       <c r="L190" s="108"/>
     </row>
-    <row r="191" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" ht="15.75" customHeight="1">
       <c r="A191" s="151"/>
       <c r="B191" s="169">
         <v>44</v>
@@ -12636,7 +12638,7 @@
       <c r="K191" s="66"/>
       <c r="L191" s="71"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12">
       <c r="A192" s="151"/>
       <c r="B192" s="170" t="s">
         <v>374</v>
@@ -12664,7 +12666,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12">
       <c r="A193" s="151"/>
       <c r="B193" s="170" t="s">
         <v>376</v>
@@ -12692,7 +12694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" ht="16.5" customHeight="1">
       <c r="A194" s="151"/>
       <c r="B194" s="170" t="s">
         <v>377</v>
@@ -12710,7 +12712,7 @@
       <c r="K194" s="6"/>
       <c r="L194" s="108"/>
     </row>
-    <row r="195" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" ht="15.75" customHeight="1">
       <c r="A195" s="151"/>
       <c r="B195" s="169">
         <v>45</v>
@@ -12728,7 +12730,7 @@
       <c r="K195" s="66"/>
       <c r="L195" s="71"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12">
       <c r="A196" s="151"/>
       <c r="B196" s="170" t="s">
         <v>380</v>
@@ -12756,7 +12758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12">
       <c r="A197" s="151"/>
       <c r="B197" s="170" t="s">
         <v>381</v>
@@ -12784,7 +12786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" ht="16.5" customHeight="1">
       <c r="A198" s="151"/>
       <c r="B198" s="170" t="s">
         <v>382</v>
@@ -12802,7 +12804,7 @@
       <c r="K198" s="6"/>
       <c r="L198" s="108"/>
     </row>
-    <row r="199" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" ht="15.75" customHeight="1">
       <c r="A199" s="151"/>
       <c r="B199" s="169">
         <v>46</v>
@@ -12820,7 +12822,7 @@
       <c r="K199" s="66"/>
       <c r="L199" s="71"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12">
       <c r="A200" s="151"/>
       <c r="B200" s="170" t="s">
         <v>385</v>
@@ -12848,7 +12850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12">
       <c r="A201" s="151"/>
       <c r="B201" s="170" t="s">
         <v>386</v>
@@ -12876,7 +12878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" ht="16.5" customHeight="1">
       <c r="A202" s="151"/>
       <c r="B202" s="170" t="s">
         <v>387</v>
@@ -12894,7 +12896,7 @@
       <c r="K202" s="6"/>
       <c r="L202" s="108"/>
     </row>
-    <row r="203" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" ht="15.75" customHeight="1">
       <c r="A203" s="151"/>
       <c r="B203" s="169">
         <v>47</v>
@@ -12912,7 +12914,7 @@
       <c r="K203" s="66"/>
       <c r="L203" s="71"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12">
       <c r="A204" s="151"/>
       <c r="B204" s="170" t="s">
         <v>390</v>
@@ -12940,7 +12942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:12" ht="16.5" customHeight="1">
       <c r="A205" s="151"/>
       <c r="B205" s="170" t="s">
         <v>392</v>
@@ -12958,7 +12960,7 @@
       <c r="K205" s="6"/>
       <c r="L205" s="108"/>
     </row>
-    <row r="206" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:12" ht="16.5" customHeight="1">
       <c r="A206" s="151"/>
       <c r="B206" s="169">
         <v>49</v>
@@ -12976,7 +12978,7 @@
       <c r="K206" s="174"/>
       <c r="L206" s="175"/>
     </row>
-    <row r="207" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" ht="15.75" customHeight="1">
       <c r="A207" s="151"/>
       <c r="B207" s="221">
         <v>5</v>
@@ -12994,7 +12996,7 @@
       <c r="K207" s="78"/>
       <c r="L207" s="85"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12">
       <c r="B208" s="22" t="s">
         <v>396</v>
       </c>
@@ -13011,7 +13013,7 @@
       <c r="K208" s="79"/>
       <c r="L208" s="86"/>
     </row>
-    <row r="209" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:12">
       <c r="B209" s="23" t="s">
         <v>398</v>
       </c>
@@ -13042,7 +13044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:12">
       <c r="B210" s="23" t="s">
         <v>400</v>
       </c>
@@ -13073,7 +13075,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="211" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:12">
       <c r="B211" s="23" t="s">
         <v>402</v>
       </c>
@@ -13104,7 +13106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="212" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:12">
       <c r="B212" s="23" t="s">
         <v>404</v>
       </c>
@@ -13135,7 +13137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="213" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:12">
       <c r="B213" s="23" t="s">
         <v>406</v>
       </c>
@@ -13166,7 +13168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="214" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:12">
       <c r="B214" s="23" t="s">
         <v>408</v>
       </c>
@@ -13197,7 +13199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="215" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:12">
       <c r="B215" s="23" t="s">
         <v>410</v>
       </c>
@@ -13228,7 +13230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="216" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:12">
       <c r="B216" s="23" t="s">
         <v>412</v>
       </c>
@@ -13255,7 +13257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="217" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:12" ht="16.5" customHeight="1">
       <c r="B217" s="23" t="s">
         <v>414</v>
       </c>
@@ -13272,7 +13274,7 @@
       <c r="K217" s="6"/>
       <c r="L217" s="108"/>
     </row>
-    <row r="218" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:12">
       <c r="B218" s="22" t="s">
         <v>416</v>
       </c>
@@ -13289,7 +13291,7 @@
       <c r="K218" s="80"/>
       <c r="L218" s="5"/>
     </row>
-    <row r="219" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:12">
       <c r="B219" s="23" t="s">
         <v>418</v>
       </c>
@@ -13316,7 +13318,7 @@
       <c r="K219" s="14"/>
       <c r="L219" s="10"/>
     </row>
-    <row r="220" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:12">
       <c r="B220" s="23" t="s">
         <v>420</v>
       </c>
@@ -13333,7 +13335,7 @@
       <c r="K220" s="14"/>
       <c r="L220" s="10"/>
     </row>
-    <row r="221" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:12">
       <c r="B221" s="22" t="s">
         <v>422</v>
       </c>
@@ -13350,7 +13352,7 @@
       <c r="K221" s="80"/>
       <c r="L221" s="5"/>
     </row>
-    <row r="222" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:12">
       <c r="B222" s="28" t="s">
         <v>424</v>
       </c>
@@ -13381,7 +13383,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="223" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:12">
       <c r="B223" s="28" t="s">
         <v>426</v>
       </c>
@@ -13412,7 +13414,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="224" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:12">
       <c r="B224" s="28" t="s">
         <v>428</v>
       </c>
@@ -13443,7 +13445,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="225" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:12">
       <c r="B225" s="28" t="s">
         <v>430</v>
       </c>
@@ -13474,7 +13476,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="226" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:12">
       <c r="B226" s="28" t="s">
         <v>432</v>
       </c>
@@ -13505,7 +13507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="227" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:12">
       <c r="B227" s="28" t="s">
         <v>434</v>
       </c>
@@ -13536,7 +13538,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="228" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:12">
       <c r="B228" s="28" t="s">
         <v>436</v>
       </c>
@@ -13567,7 +13569,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="229" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:12">
       <c r="B229" s="28" t="s">
         <v>438</v>
       </c>
@@ -13598,7 +13600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="230" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:12">
       <c r="B230" s="28" t="s">
         <v>440</v>
       </c>
@@ -13615,7 +13617,7 @@
       <c r="K230" s="6"/>
       <c r="L230" s="10"/>
     </row>
-    <row r="231" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:12">
       <c r="B231" s="22" t="s">
         <v>442</v>
       </c>
@@ -13632,7 +13634,7 @@
       <c r="K231" s="80"/>
       <c r="L231" s="5"/>
     </row>
-    <row r="232" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:12" ht="16.5" customHeight="1">
       <c r="B232" s="28" t="s">
         <v>444</v>
       </c>
@@ -13663,7 +13665,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="233" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:12" ht="16.5" customHeight="1">
       <c r="B233" s="28" t="s">
         <v>446</v>
       </c>
@@ -13694,7 +13696,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="234" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:12" ht="16.5" customHeight="1">
       <c r="B234" s="28" t="s">
         <v>448</v>
       </c>
@@ -13725,7 +13727,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="235" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:12" ht="16.5" customHeight="1">
       <c r="B235" s="28" t="s">
         <v>450</v>
       </c>
@@ -13756,7 +13758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="236" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:12" ht="16.5" customHeight="1">
       <c r="B236" s="28" t="s">
         <v>452</v>
       </c>
@@ -13787,7 +13789,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="237" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:12" ht="16.5" customHeight="1">
       <c r="B237" s="28" t="s">
         <v>454</v>
       </c>
@@ -13818,7 +13820,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:12" ht="16.5" customHeight="1">
       <c r="B238" s="28" t="s">
         <v>456</v>
       </c>
@@ -13835,7 +13837,7 @@
       <c r="K238" s="6"/>
       <c r="L238" s="10"/>
     </row>
-    <row r="239" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:12">
       <c r="B239" s="22" t="s">
         <v>458</v>
       </c>
@@ -13852,7 +13854,7 @@
       <c r="K239" s="80"/>
       <c r="L239" s="5"/>
     </row>
-    <row r="240" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:12" ht="16.5" customHeight="1">
       <c r="B240" s="28" t="s">
         <v>460</v>
       </c>
@@ -13883,7 +13885,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:12" ht="16.5" customHeight="1">
       <c r="B241" s="28" t="s">
         <v>461</v>
       </c>
@@ -13914,7 +13916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:12" ht="16.5" customHeight="1">
       <c r="B242" s="28" t="s">
         <v>463</v>
       </c>
@@ -13945,7 +13947,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:12" ht="16.5" customHeight="1">
       <c r="B243" s="28" t="s">
         <v>465</v>
       </c>
@@ -13972,7 +13974,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:12" ht="16.5" customHeight="1">
       <c r="B244" s="28" t="s">
         <v>466</v>
       </c>
@@ -13999,7 +14001,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:12" ht="16.5" customHeight="1">
       <c r="B245" s="28" t="s">
         <v>468</v>
       </c>
@@ -14016,7 +14018,7 @@
       <c r="K245" s="6"/>
       <c r="L245" s="10"/>
     </row>
-    <row r="246" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:12">
       <c r="B246" s="22" t="s">
         <v>470</v>
       </c>
@@ -14033,7 +14035,7 @@
       <c r="K246" s="80"/>
       <c r="L246" s="5"/>
     </row>
-    <row r="247" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:12" ht="16.5" customHeight="1">
       <c r="B247" s="28" t="s">
         <v>472</v>
       </c>
@@ -14064,7 +14066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:12" ht="16.5" customHeight="1">
       <c r="B248" s="28" t="s">
         <v>473</v>
       </c>
@@ -14095,7 +14097,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:12" ht="16.5" customHeight="1">
       <c r="B249" s="28" t="s">
         <v>475</v>
       </c>
@@ -14126,7 +14128,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:12" ht="16.5" customHeight="1">
       <c r="B250" s="28" t="s">
         <v>477</v>
       </c>
@@ -14153,7 +14155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:12" ht="16.5" customHeight="1">
       <c r="B251" s="28" t="s">
         <v>479</v>
       </c>
@@ -14170,7 +14172,7 @@
       <c r="K251" s="6"/>
       <c r="L251" s="10"/>
     </row>
-    <row r="252" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:12">
       <c r="B252" s="22" t="s">
         <v>481</v>
       </c>
@@ -14187,7 +14189,7 @@
       <c r="K252" s="80"/>
       <c r="L252" s="5"/>
     </row>
-    <row r="253" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:12">
       <c r="B253" s="28" t="s">
         <v>483</v>
       </c>
@@ -14218,7 +14220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="254" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:12">
       <c r="B254" s="28" t="s">
         <v>484</v>
       </c>
@@ -14249,7 +14251,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="255" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:12">
       <c r="B255" s="28" t="s">
         <v>486</v>
       </c>
@@ -14280,7 +14282,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:12">
       <c r="B256" s="28" t="s">
         <v>488</v>
       </c>
@@ -14307,7 +14309,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:12">
       <c r="B257" s="28" t="s">
         <v>490</v>
       </c>
@@ -14324,7 +14326,7 @@
       <c r="K257" s="6"/>
       <c r="L257" s="10"/>
     </row>
-    <row r="258" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:12">
       <c r="B258" s="22" t="s">
         <v>492</v>
       </c>
@@ -14341,7 +14343,7 @@
       <c r="K258" s="80"/>
       <c r="L258" s="5"/>
     </row>
-    <row r="259" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:12">
       <c r="B259" s="28" t="s">
         <v>493</v>
       </c>
@@ -14372,7 +14374,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:12">
       <c r="B260" s="28" t="s">
         <v>495</v>
       </c>
@@ -14403,7 +14405,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="261" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:12">
       <c r="B261" s="28" t="s">
         <v>497</v>
       </c>
@@ -14434,7 +14436,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="262" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:12">
       <c r="B262" s="28" t="s">
         <v>499</v>
       </c>
@@ -14465,7 +14467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="263" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:12">
       <c r="B263" s="28" t="s">
         <v>501</v>
       </c>
@@ -14496,7 +14498,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="264" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:12">
       <c r="B264" s="28" t="s">
         <v>503</v>
       </c>
@@ -14527,7 +14529,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="265" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:12">
       <c r="B265" s="28" t="s">
         <v>505</v>
       </c>
@@ -14558,7 +14560,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="266" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:12">
       <c r="B266" s="28" t="s">
         <v>507</v>
       </c>
@@ -14589,7 +14591,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="267" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:12">
       <c r="B267" s="28" t="s">
         <v>509</v>
       </c>
@@ -14608,7 +14610,7 @@
       <c r="K267" s="6"/>
       <c r="L267" s="10"/>
     </row>
-    <row r="268" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:12">
       <c r="A268" s="151"/>
       <c r="B268" s="150" t="s">
         <v>511</v>
@@ -14626,7 +14628,7 @@
       <c r="K268" s="80"/>
       <c r="L268" s="21"/>
     </row>
-    <row r="269" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:12">
       <c r="B269" s="28" t="s">
         <v>513</v>
       </c>
@@ -14657,7 +14659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="270" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:12">
       <c r="B270" s="28" t="s">
         <v>514</v>
       </c>
@@ -14688,7 +14690,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="271" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:12">
       <c r="B271" s="28" t="s">
         <v>516</v>
       </c>
@@ -14719,7 +14721,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="272" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:12">
       <c r="B272" s="28" t="s">
         <v>518</v>
       </c>
@@ -14738,7 +14740,7 @@
       <c r="K272" s="6"/>
       <c r="L272" s="10"/>
     </row>
-    <row r="273" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:12">
       <c r="B273" s="22" t="s">
         <v>520</v>
       </c>
@@ -14755,7 +14757,7 @@
       <c r="K273" s="80"/>
       <c r="L273" s="5"/>
     </row>
-    <row r="274" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:12">
       <c r="B274" s="28" t="s">
         <v>522</v>
       </c>
@@ -14786,7 +14788,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="275" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:12">
       <c r="B275" s="28" t="s">
         <v>524</v>
       </c>
@@ -14813,7 +14815,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="276" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:12">
       <c r="B276" s="28" t="s">
         <v>526</v>
       </c>
@@ -14844,7 +14846,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="277" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:12">
       <c r="B277" s="28" t="s">
         <v>528</v>
       </c>
@@ -14871,7 +14873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="278" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:12">
       <c r="B278" s="28" t="s">
         <v>530</v>
       </c>
@@ -14898,7 +14900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="279" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:12">
       <c r="B279" s="28" t="s">
         <v>532</v>
       </c>
@@ -14925,7 +14927,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:12">
       <c r="B280" s="28" t="s">
         <v>534</v>
       </c>
@@ -14952,7 +14954,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:12">
       <c r="B281" s="28" t="s">
         <v>536</v>
       </c>
@@ -14979,7 +14981,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="282" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:12">
       <c r="B282" s="28" t="s">
         <v>538</v>
       </c>
@@ -14998,7 +15000,7 @@
       <c r="K282" s="6"/>
       <c r="L282" s="10"/>
     </row>
-    <row r="283" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="2:12" ht="15.75" customHeight="1">
       <c r="B283" s="29" t="s">
         <v>540</v>
       </c>
@@ -15015,7 +15017,7 @@
       <c r="K283" s="81"/>
       <c r="L283" s="87"/>
     </row>
-    <row r="284" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="2:12" ht="15.95" customHeight="1">
       <c r="B284" s="30" t="s">
         <v>542</v>
       </c>
@@ -15032,7 +15034,7 @@
       <c r="K284" s="79"/>
       <c r="L284" s="86"/>
     </row>
-    <row r="285" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="2:12" ht="15.95" customHeight="1">
       <c r="B285" s="31" t="s">
         <v>544</v>
       </c>
@@ -15063,7 +15065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="286" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="2:12" ht="15.95" customHeight="1">
       <c r="B286" s="31" t="s">
         <v>546</v>
       </c>
@@ -15094,7 +15096,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="287" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:12" ht="15.95" customHeight="1">
       <c r="B287" s="31" t="s">
         <v>548</v>
       </c>
@@ -15125,7 +15127,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="288" spans="2:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:12" ht="15.95" customHeight="1">
       <c r="B288" s="31" t="s">
         <v>550</v>
       </c>
@@ -15156,7 +15158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="289" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="2:12" ht="16.5" customHeight="1">
       <c r="B289" s="31" t="s">
         <v>552</v>
       </c>
@@ -15187,7 +15189,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="290" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:12" ht="16.5" customHeight="1">
       <c r="B290" s="31" t="s">
         <v>554</v>
       </c>
@@ -15218,7 +15220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="291" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:12" ht="16.5" customHeight="1">
       <c r="B291" s="31" t="s">
         <v>556</v>
       </c>
@@ -15237,7 +15239,7 @@
       <c r="K291" s="6"/>
       <c r="L291" s="10"/>
     </row>
-    <row r="292" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:12">
       <c r="B292" s="32" t="s">
         <v>558</v>
       </c>
@@ -15254,7 +15256,7 @@
       <c r="K292" s="80"/>
       <c r="L292" s="86"/>
     </row>
-    <row r="293" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="293" spans="2:12">
       <c r="B293" s="31" t="s">
         <v>560</v>
       </c>
@@ -15285,7 +15287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="294" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:12">
       <c r="B294" s="31" t="s">
         <v>562</v>
       </c>
@@ -15316,7 +15318,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="295" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:12">
       <c r="B295" s="31" t="s">
         <v>563</v>
       </c>
@@ -15343,7 +15345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="296" spans="2:12">
       <c r="B296" s="31" t="s">
         <v>565</v>
       </c>
@@ -15374,7 +15376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="297" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:12">
       <c r="B297" s="31" t="s">
         <v>567</v>
       </c>
@@ -15401,7 +15403,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="298" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:12">
       <c r="B298" s="31" t="s">
         <v>568</v>
       </c>
@@ -15428,7 +15430,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="299" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:12">
       <c r="B299" s="31" t="s">
         <v>570</v>
       </c>
@@ -15447,7 +15449,7 @@
       <c r="K299" s="6"/>
       <c r="L299" s="10"/>
     </row>
-    <row r="300" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="300" spans="2:12">
       <c r="B300" s="32" t="s">
         <v>572</v>
       </c>
@@ -15464,7 +15466,7 @@
       <c r="K300" s="80"/>
       <c r="L300" s="5"/>
     </row>
-    <row r="301" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:12">
       <c r="B301" s="31" t="s">
         <v>574</v>
       </c>
@@ -15495,7 +15497,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="302" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:12">
       <c r="B302" s="31" t="s">
         <v>576</v>
       </c>
@@ -15526,7 +15528,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="303" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:12">
       <c r="B303" s="31" t="s">
         <v>578</v>
       </c>
@@ -15557,7 +15559,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="304" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:12">
       <c r="B304" s="31" t="s">
         <v>580</v>
       </c>
@@ -15576,7 +15578,7 @@
       <c r="K304" s="6"/>
       <c r="L304" s="10"/>
     </row>
-    <row r="305" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="305" spans="2:12">
       <c r="B305" s="32" t="s">
         <v>582</v>
       </c>
@@ -15593,7 +15595,7 @@
       <c r="K305" s="80"/>
       <c r="L305" s="5"/>
     </row>
-    <row r="306" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="306" spans="2:12">
       <c r="B306" s="31" t="s">
         <v>584</v>
       </c>
@@ -15624,7 +15626,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="307" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="307" spans="2:12">
       <c r="B307" s="31" t="s">
         <v>586</v>
       </c>
@@ -15655,7 +15657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="308" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="308" spans="2:12">
       <c r="B308" s="31" t="s">
         <v>587</v>
       </c>
@@ -15686,7 +15688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="309" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:12">
       <c r="B309" s="31" t="s">
         <v>588</v>
       </c>
@@ -15717,7 +15719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="310" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:12">
       <c r="B310" s="31" t="s">
         <v>590</v>
       </c>
@@ -15748,7 +15750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="311" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="311" spans="2:12">
       <c r="B311" s="31" t="s">
         <v>592</v>
       </c>
@@ -15779,7 +15781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="312" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:12">
       <c r="B312" s="31" t="s">
         <v>594</v>
       </c>
@@ -15810,7 +15812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="313" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:12" ht="16.5" customHeight="1">
       <c r="B313" s="31" t="s">
         <v>596</v>
       </c>
@@ -15841,7 +15843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="314" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:12" ht="16.5" customHeight="1">
       <c r="B314" s="31" t="s">
         <v>598</v>
       </c>
@@ -15860,7 +15862,7 @@
       <c r="K314" s="6"/>
       <c r="L314" s="10"/>
     </row>
-    <row r="315" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="315" spans="2:12">
       <c r="B315" s="32" t="s">
         <v>600</v>
       </c>
@@ -15877,7 +15879,7 @@
       <c r="K315" s="80"/>
       <c r="L315" s="5"/>
     </row>
-    <row r="316" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:12">
       <c r="B316" s="31" t="s">
         <v>602</v>
       </c>
@@ -15908,7 +15910,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="317" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:12">
       <c r="B317" s="31" t="s">
         <v>604</v>
       </c>
@@ -15939,7 +15941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="318" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="318" spans="2:12">
       <c r="B318" s="31" t="s">
         <v>606</v>
       </c>
@@ -15970,7 +15972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:12" ht="16.5" customHeight="1">
       <c r="B319" s="31" t="s">
         <v>608</v>
       </c>
@@ -16001,7 +16003,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="320" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:12" ht="16.5" customHeight="1">
       <c r="B320" s="31" t="s">
         <v>610</v>
       </c>
@@ -16020,7 +16022,7 @@
       <c r="K320" s="6"/>
       <c r="L320" s="10"/>
     </row>
-    <row r="321" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:12">
       <c r="B321" s="32" t="s">
         <v>612</v>
       </c>
@@ -16037,7 +16039,7 @@
       <c r="K321" s="80"/>
       <c r="L321" s="5"/>
     </row>
-    <row r="322" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="322" spans="2:12">
       <c r="B322" s="31" t="s">
         <v>613</v>
       </c>
@@ -16068,7 +16070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="323" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:12">
       <c r="B323" s="31" t="s">
         <v>615</v>
       </c>
@@ -16099,7 +16101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="324" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:12" ht="16.5" customHeight="1">
       <c r="B324" s="31" t="s">
         <v>617</v>
       </c>
@@ -16130,7 +16132,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="325" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:12" ht="16.5" customHeight="1">
       <c r="B325" s="31" t="s">
         <v>619</v>
       </c>
@@ -16149,7 +16151,7 @@
       <c r="K325" s="6"/>
       <c r="L325" s="10"/>
     </row>
-    <row r="326" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:12">
       <c r="B326" s="32" t="s">
         <v>621</v>
       </c>
@@ -16166,7 +16168,7 @@
       <c r="K326" s="80"/>
       <c r="L326" s="5"/>
     </row>
-    <row r="327" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="327" spans="2:12">
       <c r="B327" s="31" t="s">
         <v>623</v>
       </c>
@@ -16197,7 +16199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="328" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="328" spans="2:12">
       <c r="B328" s="31" t="s">
         <v>625</v>
       </c>
@@ -16228,7 +16230,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="329" spans="2:12">
       <c r="B329" s="31" t="s">
         <v>627</v>
       </c>
@@ -16259,7 +16261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="330" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="330" spans="2:12">
       <c r="B330" s="31" t="s">
         <v>629</v>
       </c>
@@ -16290,7 +16292,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="331" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:12">
       <c r="B331" s="31" t="s">
         <v>631</v>
       </c>
@@ -16309,7 +16311,7 @@
       <c r="K331" s="6"/>
       <c r="L331" s="10"/>
     </row>
-    <row r="332" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:12">
       <c r="B332" s="32" t="s">
         <v>633</v>
       </c>
@@ -16326,7 +16328,7 @@
       <c r="K332" s="80"/>
       <c r="L332" s="5"/>
     </row>
-    <row r="333" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="333" spans="2:12">
       <c r="B333" s="31" t="s">
         <v>635</v>
       </c>
@@ -16357,7 +16359,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="334" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:12">
       <c r="B334" s="31" t="s">
         <v>637</v>
       </c>
@@ -16388,7 +16390,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:12">
       <c r="B335" s="31" t="s">
         <v>639</v>
       </c>
@@ -16407,7 +16409,7 @@
       <c r="K335" s="6"/>
       <c r="L335" s="10"/>
     </row>
-    <row r="336" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:12">
       <c r="B336" s="32" t="s">
         <v>641</v>
       </c>
@@ -16424,7 +16426,7 @@
       <c r="K336" s="80"/>
       <c r="L336" s="5"/>
     </row>
-    <row r="337" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="337" spans="2:12">
       <c r="B337" s="31" t="s">
         <v>643</v>
       </c>
@@ -16455,7 +16457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="338" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:12" ht="16.5" customHeight="1">
       <c r="B338" s="31" t="s">
         <v>645</v>
       </c>
@@ -16486,7 +16488,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="339" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:12" ht="16.5" customHeight="1">
       <c r="B339" s="31" t="s">
         <v>647</v>
       </c>
@@ -16517,7 +16519,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="340" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:12" ht="16.5" customHeight="1">
       <c r="B340" s="31" t="s">
         <v>649</v>
       </c>
@@ -16536,7 +16538,7 @@
       <c r="K340" s="6"/>
       <c r="L340" s="10"/>
     </row>
-    <row r="341" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:12" ht="16.5" customHeight="1">
       <c r="B341" s="32" t="s">
         <v>651</v>
       </c>
@@ -16553,7 +16555,7 @@
       <c r="K341" s="80"/>
       <c r="L341" s="5"/>
     </row>
-    <row r="342" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:12" ht="16.5" customHeight="1">
       <c r="B342" s="224">
         <v>7</v>
       </c>
@@ -16570,7 +16572,7 @@
       <c r="K342" s="58"/>
       <c r="L342" s="59"/>
     </row>
-    <row r="343" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:12" ht="15.75" customHeight="1">
       <c r="B343" s="33">
         <v>70</v>
       </c>
@@ -16587,7 +16589,7 @@
       <c r="K343" s="66"/>
       <c r="L343" s="71"/>
     </row>
-    <row r="344" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:12">
       <c r="B344" s="34" t="s">
         <v>655</v>
       </c>
@@ -16618,7 +16620,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="345" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:12">
       <c r="B345" s="34" t="s">
         <v>657</v>
       </c>
@@ -16649,7 +16651,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="346" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:12">
       <c r="B346" s="34" t="s">
         <v>659</v>
       </c>
@@ -16680,7 +16682,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="347" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:12">
       <c r="B347" s="34" t="s">
         <v>661</v>
       </c>
@@ -16711,7 +16713,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="348" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:12">
       <c r="B348" s="34" t="s">
         <v>663</v>
       </c>
@@ -16742,7 +16744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="349" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="349" spans="2:12">
       <c r="B349" s="34" t="s">
         <v>665</v>
       </c>
@@ -16773,7 +16775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="350" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="350" spans="2:12">
       <c r="B350" s="34" t="s">
         <v>667</v>
       </c>
@@ -16804,7 +16806,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="351" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="2:12" ht="16.5" customHeight="1">
       <c r="B351" s="34" t="s">
         <v>669</v>
       </c>
@@ -16823,7 +16825,7 @@
       <c r="K351" s="6"/>
       <c r="L351" s="10"/>
     </row>
-    <row r="352" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="2:12" ht="15.75" customHeight="1">
       <c r="B352" s="33">
         <v>71</v>
       </c>
@@ -16840,7 +16842,7 @@
       <c r="K352" s="66"/>
       <c r="L352" s="71"/>
     </row>
-    <row r="353" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:12">
       <c r="B353" s="34" t="s">
         <v>672</v>
       </c>
@@ -16871,7 +16873,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="354" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:12">
       <c r="B354" s="34" t="s">
         <v>674</v>
       </c>
@@ -16902,7 +16904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="355" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="355" spans="2:12">
       <c r="B355" s="34" t="s">
         <v>676</v>
       </c>
@@ -16933,7 +16935,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="356" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:12">
       <c r="B356" s="34" t="s">
         <v>678</v>
       </c>
@@ -16964,7 +16966,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="357" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:12">
       <c r="B357" s="34" t="s">
         <v>680</v>
       </c>
@@ -16995,7 +16997,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="358" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:12">
       <c r="B358" s="34" t="s">
         <v>682</v>
       </c>
@@ -17026,7 +17028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="359" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="2:12" ht="16.5" customHeight="1">
       <c r="B359" s="34" t="s">
         <v>684</v>
       </c>
@@ -17045,7 +17047,7 @@
       <c r="K359" s="6"/>
       <c r="L359" s="10"/>
     </row>
-    <row r="360" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:12" ht="15.75" customHeight="1">
       <c r="B360" s="24">
         <v>72</v>
       </c>
@@ -17062,7 +17064,7 @@
       <c r="K360" s="66"/>
       <c r="L360" s="71"/>
     </row>
-    <row r="361" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:12">
       <c r="B361" s="34" t="s">
         <v>687</v>
       </c>
@@ -17085,7 +17087,7 @@
       <c r="K361" s="14"/>
       <c r="L361" s="10"/>
     </row>
-    <row r="362" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="362" spans="2:12">
       <c r="B362" s="34" t="s">
         <v>689</v>
       </c>
@@ -17108,7 +17110,7 @@
       <c r="K362" s="14"/>
       <c r="L362" s="10"/>
     </row>
-    <row r="363" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:12">
       <c r="B363" s="34" t="s">
         <v>690</v>
       </c>
@@ -17131,7 +17133,7 @@
       <c r="K363" s="14"/>
       <c r="L363" s="10"/>
     </row>
-    <row r="364" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:12">
       <c r="B364" s="34" t="s">
         <v>692</v>
       </c>
@@ -17154,7 +17156,7 @@
       <c r="K364" s="14"/>
       <c r="L364" s="10"/>
     </row>
-    <row r="365" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:12">
       <c r="B365" s="34" t="s">
         <v>694</v>
       </c>
@@ -17177,7 +17179,7 @@
       <c r="K365" s="14"/>
       <c r="L365" s="10"/>
     </row>
-    <row r="366" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="366" spans="2:12">
       <c r="B366" s="34" t="s">
         <v>696</v>
       </c>
@@ -17200,7 +17202,7 @@
       <c r="K366" s="14"/>
       <c r="L366" s="10"/>
     </row>
-    <row r="367" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:12" ht="16.5" customHeight="1">
       <c r="B367" s="34" t="s">
         <v>698</v>
       </c>
@@ -17219,7 +17221,7 @@
       <c r="K367" s="14"/>
       <c r="L367" s="10"/>
     </row>
-    <row r="368" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:12" ht="15.75" customHeight="1">
       <c r="B368" s="27">
         <v>73</v>
       </c>
@@ -17236,7 +17238,7 @@
       <c r="K368" s="66"/>
       <c r="L368" s="71"/>
     </row>
-    <row r="369" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:12">
       <c r="B369" s="35" t="s">
         <v>701</v>
       </c>
@@ -17267,7 +17269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="370" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:12">
       <c r="B370" s="35" t="s">
         <v>703</v>
       </c>
@@ -17294,7 +17296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="371" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="371" spans="2:12">
       <c r="B371" s="35" t="s">
         <v>705</v>
       </c>
@@ -17325,7 +17327,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="372" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="372" spans="2:12">
       <c r="B372" s="35" t="s">
         <v>706</v>
       </c>
@@ -17356,7 +17358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="373" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="373" spans="2:12">
       <c r="B373" s="35" t="s">
         <v>708</v>
       </c>
@@ -17387,7 +17389,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="374" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="374" spans="2:12">
       <c r="B374" s="35" t="s">
         <v>710</v>
       </c>
@@ -17418,7 +17420,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="375" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="375" spans="2:12">
       <c r="B375" s="34" t="s">
         <v>712</v>
       </c>
@@ -17437,7 +17439,7 @@
       <c r="K375" s="14"/>
       <c r="L375" s="10"/>
     </row>
-    <row r="376" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="376" spans="2:12">
       <c r="B376" s="27" t="s">
         <v>714</v>
       </c>
@@ -17454,7 +17456,7 @@
       <c r="K376" s="66"/>
       <c r="L376" s="71"/>
     </row>
-    <row r="377" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="377" spans="2:12">
       <c r="B377" s="227">
         <v>8</v>
       </c>
@@ -17471,7 +17473,7 @@
       <c r="K377" s="46"/>
       <c r="L377" s="60"/>
     </row>
-    <row r="378" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="2:12" ht="15.75" customHeight="1">
       <c r="B378" s="27">
         <v>80</v>
       </c>
@@ -17488,7 +17490,7 @@
       <c r="K378" s="66"/>
       <c r="L378" s="71"/>
     </row>
-    <row r="379" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="379" spans="2:12">
       <c r="B379" s="35" t="s">
         <v>717</v>
       </c>
@@ -17519,7 +17521,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="380" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="380" spans="2:12">
       <c r="B380" s="35" t="s">
         <v>719</v>
       </c>
@@ -17550,7 +17552,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="381" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="381" spans="2:12">
       <c r="B381" s="35" t="s">
         <v>721</v>
       </c>
@@ -17581,7 +17583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="382" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="382" spans="2:12">
       <c r="B382" s="35" t="s">
         <v>723</v>
       </c>
@@ -17612,7 +17614,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="383" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="383" spans="2:12">
       <c r="B383" s="35" t="s">
         <v>725</v>
       </c>
@@ -17643,7 +17645,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="384" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="384" spans="2:12">
       <c r="B384" s="35" t="s">
         <v>727</v>
       </c>
@@ -17674,7 +17676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="385" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="385" spans="2:12">
       <c r="B385" s="35" t="s">
         <v>729</v>
       </c>
@@ -17705,7 +17707,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="386" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="386" spans="2:12">
       <c r="B386" s="35" t="s">
         <v>731</v>
       </c>
@@ -17724,7 +17726,7 @@
       <c r="K386" s="6"/>
       <c r="L386" s="10"/>
     </row>
-    <row r="387" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="2:12" ht="15.75" customHeight="1">
       <c r="B387" s="27" t="s">
         <v>733</v>
       </c>
@@ -17741,7 +17743,7 @@
       <c r="K387" s="66"/>
       <c r="L387" s="71"/>
     </row>
-    <row r="388" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="388" spans="2:12">
       <c r="B388" s="230">
         <v>9</v>
       </c>
@@ -17758,7 +17760,7 @@
       <c r="K388" s="247"/>
       <c r="L388" s="249"/>
     </row>
-    <row r="389" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="389" spans="2:12">
       <c r="B389" s="145">
         <v>91</v>
       </c>
@@ -17777,7 +17779,7 @@
       <c r="K389" s="6"/>
       <c r="L389" s="108"/>
     </row>
-    <row r="390" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="390" spans="2:12">
       <c r="B390" s="145">
         <v>92</v>
       </c>
@@ -17796,7 +17798,7 @@
       <c r="K390" s="6"/>
       <c r="L390" s="108"/>
     </row>
-    <row r="391" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="391" spans="2:12">
       <c r="B391" s="145">
         <v>93</v>
       </c>
@@ -17815,7 +17817,7 @@
       <c r="K391" s="6"/>
       <c r="L391" s="108"/>
     </row>
-    <row r="392" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="392" spans="2:12">
       <c r="B392" s="145">
         <v>94</v>
       </c>
@@ -17834,7 +17836,7 @@
       <c r="K392" s="6"/>
       <c r="L392" s="108"/>
     </row>
-    <row r="393" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="393" spans="2:12">
       <c r="B393" s="145">
         <v>95</v>
       </c>
@@ -17853,7 +17855,7 @@
       <c r="K393" s="6"/>
       <c r="L393" s="108"/>
     </row>
-    <row r="394" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="394" spans="2:12">
       <c r="B394" s="146">
         <v>96</v>
       </c>
@@ -17872,7 +17874,7 @@
       <c r="K394" s="6"/>
       <c r="L394" s="108"/>
     </row>
-    <row r="395" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="395" spans="2:12">
       <c r="B395" s="146" t="s">
         <v>742</v>
       </c>
@@ -17891,7 +17893,7 @@
       <c r="K395" s="6"/>
       <c r="L395" s="108"/>
     </row>
-    <row r="396" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="396" spans="2:12">
       <c r="B396" s="146" t="s">
         <v>744</v>
       </c>
@@ -17908,28 +17910,37 @@
       <c r="K396" s="143"/>
       <c r="L396" s="141"/>
     </row>
-    <row r="401" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="3:3">
       <c r="C401" s="2" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="402" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="3:3">
       <c r="C402" s="2" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="403" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="3:3">
       <c r="C403" s="2" t="s">
         <v>748</v>
       </c>
     </row>
-    <row r="404" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="3:3">
       <c r="C404" s="2" t="s">
         <v>749</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B13:L13"/>
     <mergeCell ref="B1:L1"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C12"/>
@@ -17940,120 +17951,111 @@
     <mergeCell ref="J5:K5"/>
     <mergeCell ref="J6:K6"/>
     <mergeCell ref="J7:K7"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="J9:K9"/>
-    <mergeCell ref="J10:K10"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="B13:L13"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:E1 M1:XFD2 A2 A3:B3 D3:E7 M3:M12 O3:XFD12 A4:A12 E8 D9:E12 A13:E18 M13:XFD1048576 A19:A25 B24:B25 A26:E27 D28:E31 A28:C32 A33:E177 B178:E178 A178:A206 D179:E206 A207:E1048576">
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="27" operator="equal">
       <formula>"LAND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="28" operator="equal">
       <formula>"EL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="29" operator="equal">
       <formula>"VENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="30" operator="equal">
       <formula>"VVS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="31" operator="equal">
       <formula>"KON"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="32" operator="equal">
       <formula>"ARK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:E1 M1:XFD2 A2 A3:B3 D3:E7 M3:M12 O3:XFD12 A4:A12 E8 D9:E12 A13:E18 M13:XFD1048576 A19:A25 B20:E20 B22 B24:B25 A26:E27 D28:E31 A28:C32 A33:E177 B178:E178 A178:A206 D179:E206 A207:E1048576">
-    <cfRule type="cellIs" dxfId="24" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="25" operator="equal">
       <formula>"LEV"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="26" operator="equal">
       <formula>"ENTR"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:C206">
-    <cfRule type="cellIs" dxfId="22" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="37" priority="8" operator="lessThan">
       <formula>1000</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:E19 B21 C21:E22 B23:E23">
-    <cfRule type="cellIs" dxfId="21" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="17" operator="equal">
       <formula>"LEV"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="18" operator="equal">
       <formula>"ENT"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19:E20 B21:B22 C21:E22 B23:E23">
-    <cfRule type="cellIs" dxfId="19" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="19" operator="equal">
       <formula>"LAND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="20" operator="equal">
       <formula>"EL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="21" operator="equal">
       <formula>"VENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="22" operator="equal">
       <formula>"VVS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="23" operator="equal">
       <formula>"KON"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
       <formula>"ARK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C24:E25">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="10" operator="equal">
       <formula>"ENTR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="11" operator="equal">
       <formula>"LAND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>"EL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="13" operator="equal">
       <formula>"VENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="equal">
       <formula>"VVS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="15" operator="equal">
       <formula>"KON"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="16" operator="equal">
       <formula>"ARK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="equal">
       <formula>"ENTR"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="2" operator="equal">
       <formula>"LAND"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>"EL"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="4" operator="equal">
       <formula>"VENT"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="5" operator="equal">
       <formula>"VVS"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="6" operator="equal">
       <formula>"KON"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="7" operator="equal">
       <formula>"ARK"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18075,18 +18077,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="177" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" s="176" t="s">
         <v>750</v>
       </c>
@@ -18097,187 +18099,187 @@
         <v>752</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" s="250" t="s">
         <v>753</v>
       </c>
-      <c r="B2" s="288">
+      <c r="B2" s="251">
         <v>44805</v>
       </c>
       <c r="C2" s="250" t="s">
         <v>754</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" s="250" t="s">
         <v>755</v>
       </c>
-      <c r="B3" s="288">
+      <c r="B3" s="251">
         <v>45077</v>
       </c>
       <c r="C3" s="250" t="s">
         <v>756</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" s="250" t="s">
         <v>755</v>
       </c>
-      <c r="B4" s="288">
+      <c r="B4" s="251">
         <v>45089</v>
       </c>
       <c r="C4" s="250" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" s="250"/>
-      <c r="B5" s="288"/>
+      <c r="B5" s="251"/>
       <c r="C5" s="250"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" s="250"/>
-      <c r="B6" s="288"/>
+      <c r="B6" s="251"/>
       <c r="C6" s="178"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7" s="289"/>
+    <row r="7" spans="1:3">
+      <c r="B7" s="252"/>
       <c r="C7" s="178"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B8" s="289"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9" s="289"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="289"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="289"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="289"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="289"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B14" s="289"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" s="289"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16" s="289"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="289"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="289"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="289"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="289"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="289"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="289"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="289"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="289"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="289"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="289"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="289"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="289"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="289"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="289"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="289"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="289"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="289"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="289"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="289"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="289"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="289"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="289"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="289"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="289"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="289"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="289"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="289"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="289"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="289"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="289"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="289"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="289"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="289"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="289"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="289"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="289"/>
+    <row r="8" spans="1:3">
+      <c r="B8" s="252"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="B9" s="252"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" s="252"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="252"/>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="B12" s="252"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="B13" s="252"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="B14" s="252"/>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="B15" s="252"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="B16" s="252"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="252"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="252"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="252"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="252"/>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="252"/>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="252"/>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="252"/>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="252"/>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="252"/>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="252"/>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="252"/>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="252"/>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" s="252"/>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="252"/>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="252"/>
+    </row>
+    <row r="32" spans="2:2">
+      <c r="B32" s="252"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="252"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="252"/>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="252"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="252"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="252"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="252"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="252"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="252"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="252"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="252"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="252"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="252"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="252"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="252"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="252"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="252"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="252"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="252"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="252"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="252"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18286,8 +18288,28 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100309FAFF55864F54C915D256FC93189CF" ma:contentTypeVersion="14" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="cbbf6378af1006e2ffc6e4d2630b06d6">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45a28cd4-7f0b-475c-a950-133468d4a055" xmlns:ns3="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23be985134f45a9aa833b6b68d76feb5" ns2:_="" ns3:_="">
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="45a28cd4-7f0b-475c-a950-133468d4a055" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100309FAFF55864F54C915D256FC93189CF" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fe1e7545a2d0d55fa1e8750be1390eca">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="45a28cd4-7f0b-475c-a950-133468d4a055" xmlns:ns3="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4d2010749b15634dfb9f9de390013312" ns2:_="" ns3:_="">
     <xsd:import namespace="45a28cd4-7f0b-475c-a950-133468d4a055"/>
     <xsd:import namespace="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a"/>
     <xsd:element name="properties">
@@ -18319,7 +18341,7 @@
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="45a28cd4-7f0b-475c-a950-133468d4a055" elementFormDefault="qualified">
     <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Delt med" ma:internalName="SharedWithUsers" ma:readOnly="true">
+    <xsd:element name="SharedWithUsers" ma:index="8" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
       <xsd:complexType>
         <xsd:complexContent>
           <xsd:extension base="dms:UserMulti">
@@ -18338,7 +18360,7 @@
         </xsd:complexContent>
       </xsd:complexType>
     </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Delt med detaljer" ma:internalName="SharedWithDetails" ma:readOnly="true">
+    <xsd:element name="SharedWithDetails" ma:index="9" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note">
           <xsd:maxLength value="255"/>
@@ -18409,7 +18431,7 @@
         <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Billedmærker" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="83751008-6ac1-4d24-8ab5-3ca55cf7ecfc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="20" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="83751008-6ac1-4d24-8ab5-3ca55cf7ecfc" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
@@ -18426,8 +18448,8 @@
         <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Indholdstype"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
         <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
         <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
         <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
@@ -18516,45 +18538,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="45a28cd4-7f0b-475c-a950-133468d4a055" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9CC5A7F9-64C5-4511-A09E-1883F1A1D424}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B699584-3BAF-4E02-9B52-D1E34ABD5E73}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5BEB0DA-93A2-4295-B234-19EEA9E4D26B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5BEB0DA-93A2-4295-B234-19EEA9E4D26B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B699584-3BAF-4E02-9B52-D1E34ABD5E73}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="eb60fbdd-1e88-47bf-99c5-da0f6d3d8d0a"/>
-    <ds:schemaRef ds:uri="45a28cd4-7f0b-475c-a950-133468d4a055"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BDF654-9BA8-465E-BDB9-C30BAD50FE2C}"/>
 </file>